--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$DE$1:$DE$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$AZ$1:$AZ$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$DB$1:$DB$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="813">
   <si>
     <t>alias</t>
   </si>
@@ -455,6 +455,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -554,6 +566,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -3027,10 +3063,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3071,10 +3107,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3137,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3121,7 +3157,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3138,7 +3174,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3155,7 +3191,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3172,7 +3208,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3189,7 +3225,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3206,7 +3242,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3223,7 +3259,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3240,7 +3276,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3257,7 +3293,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3271,7 +3307,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3285,7 +3321,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3299,7 +3335,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3313,7 +3349,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3323,8 +3359,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3334,8 +3373,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3345,8 +3387,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3356,8 +3401,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3368,7 +3416,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3379,7 +3427,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3390,7 +3438,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3401,7 +3449,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3412,7 +3460,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3423,7 +3471,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3434,7 +3482,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3445,7 +3493,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3456,7 +3504,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3467,7 +3515,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3478,7 +3526,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3489,7 +3537,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3500,7 +3548,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3511,7 +3559,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3519,7 +3567,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3527,7 +3575,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3535,7 +3583,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3543,7 +3591,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3551,7 +3599,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3559,7 +3607,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3567,7 +3615,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3575,7 +3623,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3583,7 +3631,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3591,176 +3639,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3785,27 +3873,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3828,122 +3916,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3970,666 +4058,666 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:111" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -4667,1578 +4755,1578 @@
   <sheetData>
     <row r="1" spans="28:109">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AJ1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AZ1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="DA1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="DB1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="DE1" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="28:109">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AJ2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AZ2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="DA2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="DB2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="DE2" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="28:109">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AJ3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="DA3" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="DB3" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="DE3" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="28:109">
       <c r="AJ4" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="DA4" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="DB4" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="DE4" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="28:109">
       <c r="AJ5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="DA5" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="DB5" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="DE5" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="28:109">
       <c r="AJ6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="DA6" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="DB6" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="28:109">
       <c r="AJ7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="DA7" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="DB7" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" spans="28:109">
       <c r="AJ8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="DA8" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="28:109">
       <c r="AJ9" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="DA9" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="28:109">
       <c r="AJ10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="DA10" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="28:109">
       <c r="AJ11" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="DA11" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="28:109">
       <c r="AJ12" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="DA12" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="28:109">
       <c r="AJ13" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="DA13" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="28:109">
       <c r="AJ14" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="DA14" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="28:109">
       <c r="AJ15" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="DA15" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="28:109">
       <c r="AJ16" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DA16" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="36:105">
       <c r="AJ17" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="DA17" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="36:105">
       <c r="AJ18" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="DA18" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="36:105">
       <c r="AJ19" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="DA19" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="36:105">
       <c r="AJ20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="DA20" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="36:105">
       <c r="AJ21" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="DA21" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="36:105">
       <c r="AJ22" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="DA22" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="36:105">
       <c r="AJ23" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="DA23" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="36:105">
       <c r="AJ24" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="DA24" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="36:105">
       <c r="AJ25" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="DA25" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="36:105">
       <c r="AJ26" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="DA26" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="36:105">
       <c r="AJ27" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="DA27" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="36:105">
       <c r="AJ28" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="DA28" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="36:105">
       <c r="AJ29" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="DA29" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="36:105">
       <c r="AJ30" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="DA30" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="36:105">
       <c r="AJ31" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="36:105">
       <c r="AJ32" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="36:36">
       <c r="AJ33" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="36:36">
       <c r="AJ34" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="36:36">
       <c r="AJ35" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="36:36">
       <c r="AJ36" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="36:36">
       <c r="AJ37" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="36:36">
       <c r="AJ38" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="36:36">
       <c r="AJ39" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="36:36">
       <c r="AJ41" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="36:36">
       <c r="AJ42" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="36:36">
       <c r="AJ43" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="36:36">
       <c r="AJ44" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="36:36">
       <c r="AJ45" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="36:36">
       <c r="AJ46" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="36:36">
       <c r="AJ47" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="36:36">
       <c r="AJ49" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="36:36">
       <c r="AJ51" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="36:36">
       <c r="AJ52" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="36:36">
       <c r="AJ53" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="36:36">
       <c r="AJ54" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="36:36">
       <c r="AJ55" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="36:36">
       <c r="AJ56" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="36:36">
       <c r="AJ57" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="36:36">
       <c r="AJ58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="36:36">
       <c r="AJ59" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="36:36">
       <c r="AJ60" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="36:36">
       <c r="AJ61" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="36:36">
       <c r="AJ62" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="36:36">
       <c r="AJ63" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="36:36">
       <c r="AJ64" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -884,8 +884,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1026,8 +1025,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1900,15 +1898,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1920,8 +1916,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1945,8 +1940,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -1976,22 +1970,19 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements Units: 
-                    </t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
   </si>
   <si>
     <t>density</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Density of sample Units: 
-                    </t>
+    <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
     <t>aerobic</t>
@@ -2015,15 +2006,13 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2059,50 +2048,43 @@
     <t>alkyl diethers</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of alkyl diethers Units: 
-                    </t>
+    <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
     <t>aminopeptidase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of aminopeptidase activity Units: 
-                    </t>
+    <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
   </si>
   <si>
     <t>ammonium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of ammonium Units: 
-                    </t>
+    <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
     <t>bacterial carbon production</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of bacterial carbon production Units: 
-                    </t>
+    <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
   </si>
   <si>
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of bishomohopanol Units: 
-                    </t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
   </si>
   <si>
     <t>bromide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of bromide Units: 
-                    </t>
+    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of calcium Units: 
-                    </t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2114,246 +2096,211 @@
     <t>chloride</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chloride Units: 
-                    </t>
+    <t>(Optional) Concentration of chloride (Units: mg/L)</t>
   </si>
   <si>
     <t>chlorophyll</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chlorophyll Units: 
-                    </t>
+    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of diether lipids; can include multiple types of diether lipids Units: 
-                    </t>
+    <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
     <t>dissolved carbon dioxide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved carbon dioxide Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved hydrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved hydrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved inorganic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved inorganic carbon concentration Units: 
-                    </t>
+    <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 Units: 
-                    </t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
     <t>methane</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Methane (gas) amount or concentration at the time of sampling Units: 
-                    </t>
+    <t>(Optional) Methane (gas) amount or concentration at the time of sampling (Units: µM/L)</t>
   </si>
   <si>
     <t>dissolved oxygen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved oxygen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
     <t>glucosidase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of glucosidase activity Units: 
-                    </t>
+    <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
   </si>
   <si>
     <t>magnesium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of magnesium Units: 
-                    </t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
   </si>
   <si>
     <t>n-alkanes</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of n-alkanes; can include multiple n-alkanes Units: 
-                    </t>
+    <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrate Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrate (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrite</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrite Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrogen (total) Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrogen (total) (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic matter</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic matter Units: 
-                    </t>
+    <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
     <t>organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic nitrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
     <t>particulate organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of particulate organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
     <t>petroleum hydrocarbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of petroleum hydrocarbon Units: 
-                    </t>
+    <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>phaeopigments</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phaeopigments; can include multiple phaeopigments Units: 
-                    </t>
+    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: µg/L)</t>
   </si>
   <si>
     <t>phosphate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phosphate Units: 
-                    </t>
+    <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phospholipid fatty acids; can include multiple values Units: 
-                    </t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of potassium Units: 
-                    </t>
+    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
     <t>redox potential</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential Units: 
-                    </t>
+    <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
   </si>
   <si>
     <t>salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>total carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total carbon content Units: 
-                    </t>
+    <t>(Optional) Total carbon content (Units: µg/L)</t>
   </si>
   <si>
     <t>silicate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of silicate Units: 
-                    </t>
+    <t>(Optional) Concentration of silicate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sodium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Sodium concentration Units: 
-                    </t>
+    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
     <t>total organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content Units: 
-                    </t>
+    <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
   </si>
   <si>
     <t>water content</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Water content measurement Units: 
-                    </t>
+    <t>(Optional) Water content measurement (Units: g/g)</t>
   </si>
   <si>
     <t>sulfate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfate Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfide Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
   </si>
   <si>
     <t>total nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total nitrogen content of the sample Units: 
-                    </t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>subspecific genetic lineage</t>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -104,7 +104,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="840">
   <si>
     <t>alias</t>
   </si>
@@ -1329,12 +1329,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2539,12 +2539,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>porosity</t>
@@ -4076,7 +4070,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DT2"/>
+  <dimension ref="A1:DS2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4085,7 +4079,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4455,11 +4449,8 @@
       <c r="DS1" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="DT1" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="2" spans="1:124" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:123" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4828,9 +4819,6 @@
       </c>
       <c r="DS2" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>841</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="841">
   <si>
     <t>alias</t>
   </si>
@@ -817,6 +817,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4087,738 +4090,738 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -4859,1589 +4862,1589 @@
   <sheetData>
     <row r="1" spans="5:50">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AX1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="5:50">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AX2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="5:50">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="5:50">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="5:50">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="5:50">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="5:50">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="5:50">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="5:50">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="5:50">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="5:50">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="5:50">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="5:50">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="5:50">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="5:50">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="5:50">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="5:32">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="5:32">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="5:32">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="5:32">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="5:32">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="5:32">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="5:32">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="5:32">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="5:32">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="5:32">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="5:32">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="5:32">
       <c r="AF31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="5:32">
       <c r="AF32" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="32:32">
       <c r="AF33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="32:32">
       <c r="AF34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="32:32">
       <c r="AF35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="32:32">
       <c r="AF36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="32:32">
       <c r="AF37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="32:32">
       <c r="AF38" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="32:32">
       <c r="AF39" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="32:32">
       <c r="AF40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="32:32">
       <c r="AF41" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="32:32">
       <c r="AF42" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="32:32">
       <c r="AF43" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="32:32">
       <c r="AF44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="32:32">
       <c r="AF45" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="32:32">
       <c r="AF46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="32:32">
       <c r="AF47" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="32:32">
       <c r="AF48" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="32:32">
       <c r="AF49" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" spans="32:32">
       <c r="AF50" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="32:32">
       <c r="AF51" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="32:32">
       <c r="AF52" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="32:32">
       <c r="AF53" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="32:32">
       <c r="AF54" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="32:32">
       <c r="AF55" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="32:32">
       <c r="AF56" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="32:32">
       <c r="AF57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="32:32">
       <c r="AF58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="32:32">
       <c r="AF59" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="32:32">
       <c r="AF60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="32:32">
       <c r="AF61" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="32:32">
       <c r="AF62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="32:32">
       <c r="AF63" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="32:32">
       <c r="AF64" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="32:32">
       <c r="AF65" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="32:32">
       <c r="AF66" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="32:32">
       <c r="AF67" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="32:32">
       <c r="AF68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="32:32">
       <c r="AF69" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="32:32">
       <c r="AF70" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="32:32">
       <c r="AF71" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="32:32">
       <c r="AF72" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="32:32">
       <c r="AF73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="32:32">
       <c r="AF74" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="32:32">
       <c r="AF75" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="32:32">
       <c r="AF76" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="32:32">
       <c r="AF77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="32:32">
       <c r="AF78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="32:32">
       <c r="AF79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="32:32">
       <c r="AF80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="32:32">
       <c r="AF81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="32:32">
       <c r="AF82" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="32:32">
       <c r="AF83" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="32:32">
       <c r="AF84" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="32:32">
       <c r="AF85" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="32:32">
       <c r="AF86" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="32:32">
       <c r="AF87" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="32:32">
       <c r="AF88" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="32:32">
       <c r="AF89" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="32:32">
       <c r="AF90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="32:32">
       <c r="AF91" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="32:32">
       <c r="AF92" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="32:32">
       <c r="AF93" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="32:32">
       <c r="AF94" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="32:32">
       <c r="AF95" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="32:32">
       <c r="AF96" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97" spans="32:32">
       <c r="AF97" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="32:32">
       <c r="AF98" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="32:32">
       <c r="AF99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="32:32">
       <c r="AF100" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="32:32">
       <c r="AF101" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="32:32">
       <c r="AF102" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="32:32">
       <c r="AF103" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104" spans="32:32">
       <c r="AF104" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="32:32">
       <c r="AF105" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="32:32">
       <c r="AF106" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="32:32">
       <c r="AF107" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" spans="32:32">
       <c r="AF108" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="32:32">
       <c r="AF109" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="110" spans="32:32">
       <c r="AF110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="32:32">
       <c r="AF111" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="32:32">
       <c r="AF112" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="32:32">
       <c r="AF113" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="32:32">
       <c r="AF114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="32:32">
       <c r="AF115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="32:32">
       <c r="AF116" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="32:32">
       <c r="AF117" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="32:32">
       <c r="AF118" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="32:32">
       <c r="AF119" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="32:32">
       <c r="AF120" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="32:32">
       <c r="AF121" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="122" spans="32:32">
       <c r="AF122" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="123" spans="32:32">
       <c r="AF123" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124" spans="32:32">
       <c r="AF124" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125" spans="32:32">
       <c r="AF125" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="32:32">
       <c r="AF126" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="32:32">
       <c r="AF127" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="32:32">
       <c r="AF128" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="32:32">
       <c r="AF129" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="32:32">
       <c r="AF130" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="32:32">
       <c r="AF131" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="32:32">
       <c r="AF132" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="32:32">
       <c r="AF133" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="32:32">
       <c r="AF134" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="32:32">
       <c r="AF135" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="32:32">
       <c r="AF136" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="32:32">
       <c r="AF137" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="32:32">
       <c r="AF138" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="32:32">
       <c r="AF139" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="32:32">
       <c r="AF140" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" spans="32:32">
       <c r="AF141" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142" spans="32:32">
       <c r="AF142" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="143" spans="32:32">
       <c r="AF143" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="144" spans="32:32">
       <c r="AF144" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="145" spans="32:32">
       <c r="AF145" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="146" spans="32:32">
       <c r="AF146" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="147" spans="32:32">
       <c r="AF147" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="148" spans="32:32">
       <c r="AF148" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="32:32">
       <c r="AF149" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="32:32">
       <c r="AF150" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="32:32">
       <c r="AF151" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="32:32">
       <c r="AF152" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="32:32">
       <c r="AF153" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="32:32">
       <c r="AF154" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="155" spans="32:32">
       <c r="AF155" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="32:32">
       <c r="AF156" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="32:32">
       <c r="AF157" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="158" spans="32:32">
       <c r="AF158" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="32:32">
       <c r="AF159" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="32:32">
       <c r="AF160" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="161" spans="32:32">
       <c r="AF161" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="32:32">
       <c r="AF162" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="163" spans="32:32">
       <c r="AF163" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="32:32">
       <c r="AF164" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="165" spans="32:32">
       <c r="AF165" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="166" spans="32:32">
       <c r="AF166" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="32:32">
       <c r="AF167" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="32:32">
       <c r="AF168" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" spans="32:32">
       <c r="AF169" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="170" spans="32:32">
       <c r="AF170" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="171" spans="32:32">
       <c r="AF171" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="172" spans="32:32">
       <c r="AF172" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="173" spans="32:32">
       <c r="AF173" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174" spans="32:32">
       <c r="AF174" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="175" spans="32:32">
       <c r="AF175" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="176" spans="32:32">
       <c r="AF176" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="32:32">
       <c r="AF177" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="178" spans="32:32">
       <c r="AF178" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="179" spans="32:32">
       <c r="AF179" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="180" spans="32:32">
       <c r="AF180" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="181" spans="32:32">
       <c r="AF181" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" spans="32:32">
       <c r="AF182" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="183" spans="32:32">
       <c r="AF183" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184" spans="32:32">
       <c r="AF184" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="32:32">
       <c r="AF185" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="186" spans="32:32">
       <c r="AF186" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="187" spans="32:32">
       <c r="AF187" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="32:32">
       <c r="AF188" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="189" spans="32:32">
       <c r="AF189" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="32:32">
       <c r="AF190" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="191" spans="32:32">
       <c r="AF191" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="32:32">
       <c r="AF192" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="32:32">
       <c r="AF193" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="32:32">
       <c r="AF194" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="195" spans="32:32">
       <c r="AF195" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="32:32">
       <c r="AF196" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="32:32">
       <c r="AF197" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="198" spans="32:32">
       <c r="AF198" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="199" spans="32:32">
       <c r="AF199" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="200" spans="32:32">
       <c r="AF200" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="201" spans="32:32">
       <c r="AF201" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="32:32">
       <c r="AF202" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="203" spans="32:32">
       <c r="AF203" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="204" spans="32:32">
       <c r="AF204" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="32:32">
       <c r="AF205" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="32:32">
       <c r="AF206" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="207" spans="32:32">
       <c r="AF207" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="32:32">
       <c r="AF208" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="209" spans="32:32">
       <c r="AF209" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="210" spans="32:32">
       <c r="AF210" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="211" spans="32:32">
       <c r="AF211" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="212" spans="32:32">
       <c r="AF212" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213" spans="32:32">
       <c r="AF213" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="32:32">
       <c r="AF214" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="215" spans="32:32">
       <c r="AF215" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="32:32">
       <c r="AF216" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="217" spans="32:32">
       <c r="AF217" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="218" spans="32:32">
       <c r="AF218" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="219" spans="32:32">
       <c r="AF219" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220" spans="32:32">
       <c r="AF220" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="221" spans="32:32">
       <c r="AF221" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="222" spans="32:32">
       <c r="AF222" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="223" spans="32:32">
       <c r="AF223" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="224" spans="32:32">
       <c r="AF224" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="225" spans="32:32">
       <c r="AF225" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="226" spans="32:32">
       <c r="AF226" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="227" spans="32:32">
       <c r="AF227" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="228" spans="32:32">
       <c r="AF228" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="229" spans="32:32">
       <c r="AF229" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="230" spans="32:32">
       <c r="AF230" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="231" spans="32:32">
       <c r="AF231" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="232" spans="32:32">
       <c r="AF232" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="233" spans="32:32">
       <c r="AF233" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="234" spans="32:32">
       <c r="AF234" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="32:32">
       <c r="AF235" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="236" spans="32:32">
       <c r="AF236" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="237" spans="32:32">
       <c r="AF237" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="238" spans="32:32">
       <c r="AF238" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="239" spans="32:32">
       <c r="AF239" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="240" spans="32:32">
       <c r="AF240" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="241" spans="32:32">
       <c r="AF241" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="242" spans="32:32">
       <c r="AF242" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="243" spans="32:32">
       <c r="AF243" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="244" spans="32:32">
       <c r="AF244" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="245" spans="32:32">
       <c r="AF245" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="246" spans="32:32">
       <c r="AF246" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="247" spans="32:32">
       <c r="AF247" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="32:32">
       <c r="AF248" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="249" spans="32:32">
       <c r="AF249" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="250" spans="32:32">
       <c r="AF250" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="251" spans="32:32">
       <c r="AF251" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="252" spans="32:32">
       <c r="AF252" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="253" spans="32:32">
       <c r="AF253" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="254" spans="32:32">
       <c r="AF254" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="255" spans="32:32">
       <c r="AF255" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="256" spans="32:32">
       <c r="AF256" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="257" spans="32:32">
       <c r="AF257" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="258" spans="32:32">
       <c r="AF258" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="259" spans="32:32">
       <c r="AF259" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="32:32">
       <c r="AF260" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="261" spans="32:32">
       <c r="AF261" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="262" spans="32:32">
       <c r="AF262" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="263" spans="32:32">
       <c r="AF263" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="264" spans="32:32">
       <c r="AF264" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="265" spans="32:32">
       <c r="AF265" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="266" spans="32:32">
       <c r="AF266" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="267" spans="32:32">
       <c r="AF267" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="268" spans="32:32">
       <c r="AF268" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269" spans="32:32">
       <c r="AF269" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="270" spans="32:32">
       <c r="AF270" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="271" spans="32:32">
       <c r="AF271" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="272" spans="32:32">
       <c r="AF272" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="273" spans="32:32">
       <c r="AF273" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="274" spans="32:32">
       <c r="AF274" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="275" spans="32:32">
       <c r="AF275" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="276" spans="32:32">
       <c r="AF276" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="277" spans="32:32">
       <c r="AF277" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="278" spans="32:32">
       <c r="AF278" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="279" spans="32:32">
       <c r="AF279" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="280" spans="32:32">
       <c r="AF280" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="281" spans="32:32">
       <c r="AF281" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="282" spans="32:32">
       <c r="AF282" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="283" spans="32:32">
       <c r="AF283" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="284" spans="32:32">
       <c r="AF284" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="285" spans="32:32">
       <c r="AF285" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="286" spans="32:32">
       <c r="AF286" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="287" spans="32:32">
       <c r="AF287" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="288" spans="32:32">
       <c r="AF288" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -117,7 +117,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -135,7 +135,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="842">
   <si>
     <t>alias</t>
   </si>
@@ -1140,6 +1140,72 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1968,6 +2034,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2008,72 +2077,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -4177,280 +4180,280 @@
         <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>655</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>657</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>661</v>
+        <v>373</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>673</v>
+        <v>385</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>675</v>
+        <v>387</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
@@ -4548,280 +4551,280 @@
         <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>656</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>676</v>
+        <v>388</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -4841,7 +4844,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
@@ -4854,7 +4857,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AX288"/>
+  <dimension ref="E1:AX289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4876,11 +4879,11 @@
       <c r="Z1" t="s">
         <v>352</v>
       </c>
-      <c r="AF1" t="s">
-        <v>367</v>
+      <c r="AQ1" t="s">
+        <v>389</v>
       </c>
       <c r="AX1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="5:50">
@@ -4899,11 +4902,11 @@
       <c r="Z2" t="s">
         <v>353</v>
       </c>
-      <c r="AF2" t="s">
-        <v>368</v>
+      <c r="AQ2" t="s">
+        <v>390</v>
       </c>
       <c r="AX2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="5:50">
@@ -4919,8 +4922,8 @@
       <c r="Z3" t="s">
         <v>354</v>
       </c>
-      <c r="AF3" t="s">
-        <v>369</v>
+      <c r="AQ3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="5:50">
@@ -4933,8 +4936,8 @@
       <c r="H4" t="s">
         <v>310</v>
       </c>
-      <c r="AF4" t="s">
-        <v>370</v>
+      <c r="AQ4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="5:50">
@@ -4947,8 +4950,8 @@
       <c r="H5" t="s">
         <v>311</v>
       </c>
-      <c r="AF5" t="s">
-        <v>371</v>
+      <c r="AQ5" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="5:50">
@@ -4958,8 +4961,8 @@
       <c r="H6" t="s">
         <v>312</v>
       </c>
-      <c r="AF6" t="s">
-        <v>372</v>
+      <c r="AQ6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="5:50">
@@ -4969,1482 +4972,1487 @@
       <c r="H7" t="s">
         <v>313</v>
       </c>
-      <c r="AF7" t="s">
-        <v>373</v>
+      <c r="AQ7" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="5:50">
       <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="AF8" t="s">
-        <v>374</v>
+      <c r="AQ8" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="5:50">
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="AF9" t="s">
-        <v>375</v>
+      <c r="AQ9" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="5:50">
       <c r="E10" t="s">
         <v>275</v>
       </c>
-      <c r="AF10" t="s">
-        <v>376</v>
+      <c r="AQ10" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="5:50">
       <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="AF11" t="s">
-        <v>377</v>
+      <c r="AQ11" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="5:50">
       <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="AF12" t="s">
-        <v>378</v>
+      <c r="AQ12" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="5:50">
       <c r="E13" t="s">
         <v>278</v>
       </c>
-      <c r="AF13" t="s">
-        <v>379</v>
+      <c r="AQ13" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="5:50">
       <c r="E14" t="s">
         <v>279</v>
       </c>
-      <c r="AF14" t="s">
-        <v>380</v>
+      <c r="AQ14" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="5:50">
       <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="AF15" t="s">
-        <v>381</v>
+      <c r="AQ15" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="5:50">
       <c r="E16" t="s">
         <v>281</v>
       </c>
-      <c r="AF16" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="5:32">
+      <c r="AQ16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="5:43">
       <c r="E17" t="s">
         <v>282</v>
       </c>
-      <c r="AF17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="5:32">
+      <c r="AQ17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="5:43">
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="AF18" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="5:32">
+      <c r="AQ18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="5:43">
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="AF19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="5:32">
+      <c r="AQ19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="5:43">
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="AF20" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="5:32">
+      <c r="AQ20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="5:43">
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="AF21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="5:32">
+      <c r="AQ21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="5:43">
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="AF22" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="5:32">
+      <c r="AQ22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="5:43">
       <c r="E23" t="s">
         <v>288</v>
       </c>
-      <c r="AF23" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="5:32">
+      <c r="AQ23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="5:43">
       <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c r="AF24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="5:32">
+      <c r="AQ24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="5:43">
       <c r="E25" t="s">
         <v>290</v>
       </c>
-      <c r="AF25" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="5:32">
+      <c r="AQ25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="5:43">
       <c r="E26" t="s">
         <v>291</v>
       </c>
-      <c r="AF26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="5:32">
+      <c r="AQ26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="5:43">
       <c r="E27" t="s">
         <v>292</v>
       </c>
-      <c r="AF27" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="28" spans="5:32">
+      <c r="AQ27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="5:43">
       <c r="E28" t="s">
         <v>293</v>
       </c>
-      <c r="AF28" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="5:32">
+      <c r="AQ28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="5:43">
       <c r="E29" t="s">
         <v>294</v>
       </c>
-      <c r="AF29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="5:32">
+      <c r="AQ29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="5:43">
       <c r="E30" t="s">
         <v>295</v>
       </c>
-      <c r="AF30" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="5:32">
-      <c r="AF31" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" spans="5:32">
-      <c r="AF32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="32:32">
-      <c r="AF33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="32:32">
-      <c r="AF34" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="32:32">
-      <c r="AF35" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="32:32">
-      <c r="AF36" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="37" spans="32:32">
-      <c r="AF37" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="38" spans="32:32">
-      <c r="AF38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="39" spans="32:32">
-      <c r="AF39" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="40" spans="32:32">
-      <c r="AF40" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="41" spans="32:32">
-      <c r="AF41" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="42" spans="32:32">
-      <c r="AF42" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="43" spans="32:32">
-      <c r="AF43" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="32:32">
-      <c r="AF44" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="45" spans="32:32">
-      <c r="AF45" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="46" spans="32:32">
-      <c r="AF46" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="32:32">
-      <c r="AF47" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="48" spans="32:32">
-      <c r="AF48" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="49" spans="32:32">
-      <c r="AF49" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="50" spans="32:32">
-      <c r="AF50" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="51" spans="32:32">
-      <c r="AF51" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="32:32">
-      <c r="AF52" t="s">
+      <c r="AQ30" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="53" spans="32:32">
-      <c r="AF53" t="s">
+    <row r="31" spans="5:43">
+      <c r="AQ31" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="32:32">
-      <c r="AF54" t="s">
+    <row r="32" spans="5:43">
+      <c r="AQ32" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="32:32">
-      <c r="AF55" t="s">
+    <row r="33" spans="43:43">
+      <c r="AQ33" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="56" spans="32:32">
-      <c r="AF56" t="s">
+    <row r="34" spans="43:43">
+      <c r="AQ34" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="32:32">
-      <c r="AF57" t="s">
+    <row r="35" spans="43:43">
+      <c r="AQ35" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="58" spans="32:32">
-      <c r="AF58" t="s">
+    <row r="36" spans="43:43">
+      <c r="AQ36" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="32:32">
-      <c r="AF59" t="s">
+    <row r="37" spans="43:43">
+      <c r="AQ37" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="60" spans="32:32">
-      <c r="AF60" t="s">
+    <row r="38" spans="43:43">
+      <c r="AQ38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="32:32">
-      <c r="AF61" t="s">
+    <row r="39" spans="43:43">
+      <c r="AQ39" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="32:32">
-      <c r="AF62" t="s">
+    <row r="40" spans="43:43">
+      <c r="AQ40" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="32:32">
-      <c r="AF63" t="s">
+    <row r="41" spans="43:43">
+      <c r="AQ41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="64" spans="32:32">
-      <c r="AF64" t="s">
+    <row r="42" spans="43:43">
+      <c r="AQ42" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="32:32">
-      <c r="AF65" t="s">
+    <row r="43" spans="43:43">
+      <c r="AQ43" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="32:32">
-      <c r="AF66" t="s">
+    <row r="44" spans="43:43">
+      <c r="AQ44" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="32:32">
-      <c r="AF67" t="s">
+    <row r="45" spans="43:43">
+      <c r="AQ45" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="32:32">
-      <c r="AF68" t="s">
+    <row r="46" spans="43:43">
+      <c r="AQ46" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="32:32">
-      <c r="AF69" t="s">
+    <row r="47" spans="43:43">
+      <c r="AQ47" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="32:32">
-      <c r="AF70" t="s">
+    <row r="48" spans="43:43">
+      <c r="AQ48" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="71" spans="32:32">
-      <c r="AF71" t="s">
+    <row r="49" spans="43:43">
+      <c r="AQ49" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="72" spans="32:32">
-      <c r="AF72" t="s">
+    <row r="50" spans="43:43">
+      <c r="AQ50" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="32:32">
-      <c r="AF73" t="s">
+    <row r="51" spans="43:43">
+      <c r="AQ51" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="32:32">
-      <c r="AF74" t="s">
+    <row r="52" spans="43:43">
+      <c r="AQ52" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="75" spans="32:32">
-      <c r="AF75" t="s">
+    <row r="53" spans="43:43">
+      <c r="AQ53" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="76" spans="32:32">
-      <c r="AF76" t="s">
+    <row r="54" spans="43:43">
+      <c r="AQ54" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="77" spans="32:32">
-      <c r="AF77" t="s">
+    <row r="55" spans="43:43">
+      <c r="AQ55" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="32:32">
-      <c r="AF78" t="s">
+    <row r="56" spans="43:43">
+      <c r="AQ56" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="32:32">
-      <c r="AF79" t="s">
+    <row r="57" spans="43:43">
+      <c r="AQ57" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="32:32">
-      <c r="AF80" t="s">
+    <row r="58" spans="43:43">
+      <c r="AQ58" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="32:32">
-      <c r="AF81" t="s">
+    <row r="59" spans="43:43">
+      <c r="AQ59" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="32:32">
-      <c r="AF82" t="s">
+    <row r="60" spans="43:43">
+      <c r="AQ60" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="83" spans="32:32">
-      <c r="AF83" t="s">
+    <row r="61" spans="43:43">
+      <c r="AQ61" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="84" spans="32:32">
-      <c r="AF84" t="s">
+    <row r="62" spans="43:43">
+      <c r="AQ62" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="85" spans="32:32">
-      <c r="AF85" t="s">
+    <row r="63" spans="43:43">
+      <c r="AQ63" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="86" spans="32:32">
-      <c r="AF86" t="s">
+    <row r="64" spans="43:43">
+      <c r="AQ64" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="87" spans="32:32">
-      <c r="AF87" t="s">
+    <row r="65" spans="43:43">
+      <c r="AQ65" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="88" spans="32:32">
-      <c r="AF88" t="s">
+    <row r="66" spans="43:43">
+      <c r="AQ66" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="89" spans="32:32">
-      <c r="AF89" t="s">
+    <row r="67" spans="43:43">
+      <c r="AQ67" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="90" spans="32:32">
-      <c r="AF90" t="s">
+    <row r="68" spans="43:43">
+      <c r="AQ68" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="32:32">
-      <c r="AF91" t="s">
+    <row r="69" spans="43:43">
+      <c r="AQ69" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="92" spans="32:32">
-      <c r="AF92" t="s">
+    <row r="70" spans="43:43">
+      <c r="AQ70" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="93" spans="32:32">
-      <c r="AF93" t="s">
+    <row r="71" spans="43:43">
+      <c r="AQ71" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="32:32">
-      <c r="AF94" t="s">
+    <row r="72" spans="43:43">
+      <c r="AQ72" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="95" spans="32:32">
-      <c r="AF95" t="s">
+    <row r="73" spans="43:43">
+      <c r="AQ73" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="96" spans="32:32">
-      <c r="AF96" t="s">
+    <row r="74" spans="43:43">
+      <c r="AQ74" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="32:32">
-      <c r="AF97" t="s">
+    <row r="75" spans="43:43">
+      <c r="AQ75" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="98" spans="32:32">
-      <c r="AF98" t="s">
+    <row r="76" spans="43:43">
+      <c r="AQ76" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="99" spans="32:32">
-      <c r="AF99" t="s">
+    <row r="77" spans="43:43">
+      <c r="AQ77" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="32:32">
-      <c r="AF100" t="s">
+    <row r="78" spans="43:43">
+      <c r="AQ78" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="32:32">
-      <c r="AF101" t="s">
+    <row r="79" spans="43:43">
+      <c r="AQ79" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="102" spans="32:32">
-      <c r="AF102" t="s">
+    <row r="80" spans="43:43">
+      <c r="AQ80" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="103" spans="32:32">
-      <c r="AF103" t="s">
+    <row r="81" spans="43:43">
+      <c r="AQ81" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="104" spans="32:32">
-      <c r="AF104" t="s">
+    <row r="82" spans="43:43">
+      <c r="AQ82" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="32:32">
-      <c r="AF105" t="s">
+    <row r="83" spans="43:43">
+      <c r="AQ83" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="106" spans="32:32">
-      <c r="AF106" t="s">
+    <row r="84" spans="43:43">
+      <c r="AQ84" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="107" spans="32:32">
-      <c r="AF107" t="s">
+    <row r="85" spans="43:43">
+      <c r="AQ85" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="108" spans="32:32">
-      <c r="AF108" t="s">
+    <row r="86" spans="43:43">
+      <c r="AQ86" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="109" spans="32:32">
-      <c r="AF109" t="s">
+    <row r="87" spans="43:43">
+      <c r="AQ87" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="110" spans="32:32">
-      <c r="AF110" t="s">
+    <row r="88" spans="43:43">
+      <c r="AQ88" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="111" spans="32:32">
-      <c r="AF111" t="s">
+    <row r="89" spans="43:43">
+      <c r="AQ89" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="32:32">
-      <c r="AF112" t="s">
+    <row r="90" spans="43:43">
+      <c r="AQ90" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="113" spans="32:32">
-      <c r="AF113" t="s">
+    <row r="91" spans="43:43">
+      <c r="AQ91" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="114" spans="32:32">
-      <c r="AF114" t="s">
+    <row r="92" spans="43:43">
+      <c r="AQ92" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="115" spans="32:32">
-      <c r="AF115" t="s">
+    <row r="93" spans="43:43">
+      <c r="AQ93" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="116" spans="32:32">
-      <c r="AF116" t="s">
+    <row r="94" spans="43:43">
+      <c r="AQ94" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="117" spans="32:32">
-      <c r="AF117" t="s">
+    <row r="95" spans="43:43">
+      <c r="AQ95" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="32:32">
-      <c r="AF118" t="s">
+    <row r="96" spans="43:43">
+      <c r="AQ96" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="119" spans="32:32">
-      <c r="AF119" t="s">
+    <row r="97" spans="43:43">
+      <c r="AQ97" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="120" spans="32:32">
-      <c r="AF120" t="s">
+    <row r="98" spans="43:43">
+      <c r="AQ98" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="121" spans="32:32">
-      <c r="AF121" t="s">
+    <row r="99" spans="43:43">
+      <c r="AQ99" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="122" spans="32:32">
-      <c r="AF122" t="s">
+    <row r="100" spans="43:43">
+      <c r="AQ100" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="123" spans="32:32">
-      <c r="AF123" t="s">
+    <row r="101" spans="43:43">
+      <c r="AQ101" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="124" spans="32:32">
-      <c r="AF124" t="s">
+    <row r="102" spans="43:43">
+      <c r="AQ102" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="125" spans="32:32">
-      <c r="AF125" t="s">
+    <row r="103" spans="43:43">
+      <c r="AQ103" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="126" spans="32:32">
-      <c r="AF126" t="s">
+    <row r="104" spans="43:43">
+      <c r="AQ104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="127" spans="32:32">
-      <c r="AF127" t="s">
+    <row r="105" spans="43:43">
+      <c r="AQ105" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="128" spans="32:32">
-      <c r="AF128" t="s">
+    <row r="106" spans="43:43">
+      <c r="AQ106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="129" spans="32:32">
-      <c r="AF129" t="s">
+    <row r="107" spans="43:43">
+      <c r="AQ107" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="130" spans="32:32">
-      <c r="AF130" t="s">
+    <row r="108" spans="43:43">
+      <c r="AQ108" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="131" spans="32:32">
-      <c r="AF131" t="s">
+    <row r="109" spans="43:43">
+      <c r="AQ109" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="132" spans="32:32">
-      <c r="AF132" t="s">
+    <row r="110" spans="43:43">
+      <c r="AQ110" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="133" spans="32:32">
-      <c r="AF133" t="s">
+    <row r="111" spans="43:43">
+      <c r="AQ111" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="134" spans="32:32">
-      <c r="AF134" t="s">
+    <row r="112" spans="43:43">
+      <c r="AQ112" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="32:32">
-      <c r="AF135" t="s">
+    <row r="113" spans="43:43">
+      <c r="AQ113" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="136" spans="32:32">
-      <c r="AF136" t="s">
+    <row r="114" spans="43:43">
+      <c r="AQ114" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="137" spans="32:32">
-      <c r="AF137" t="s">
+    <row r="115" spans="43:43">
+      <c r="AQ115" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="138" spans="32:32">
-      <c r="AF138" t="s">
+    <row r="116" spans="43:43">
+      <c r="AQ116" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="139" spans="32:32">
-      <c r="AF139" t="s">
+    <row r="117" spans="43:43">
+      <c r="AQ117" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="140" spans="32:32">
-      <c r="AF140" t="s">
+    <row r="118" spans="43:43">
+      <c r="AQ118" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="141" spans="32:32">
-      <c r="AF141" t="s">
+    <row r="119" spans="43:43">
+      <c r="AQ119" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="142" spans="32:32">
-      <c r="AF142" t="s">
+    <row r="120" spans="43:43">
+      <c r="AQ120" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="32:32">
-      <c r="AF143" t="s">
+    <row r="121" spans="43:43">
+      <c r="AQ121" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="144" spans="32:32">
-      <c r="AF144" t="s">
+    <row r="122" spans="43:43">
+      <c r="AQ122" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="145" spans="32:32">
-      <c r="AF145" t="s">
+    <row r="123" spans="43:43">
+      <c r="AQ123" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="146" spans="32:32">
-      <c r="AF146" t="s">
+    <row r="124" spans="43:43">
+      <c r="AQ124" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="147" spans="32:32">
-      <c r="AF147" t="s">
+    <row r="125" spans="43:43">
+      <c r="AQ125" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="148" spans="32:32">
-      <c r="AF148" t="s">
+    <row r="126" spans="43:43">
+      <c r="AQ126" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="149" spans="32:32">
-      <c r="AF149" t="s">
+    <row r="127" spans="43:43">
+      <c r="AQ127" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="150" spans="32:32">
-      <c r="AF150" t="s">
+    <row r="128" spans="43:43">
+      <c r="AQ128" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="151" spans="32:32">
-      <c r="AF151" t="s">
+    <row r="129" spans="43:43">
+      <c r="AQ129" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="152" spans="32:32">
-      <c r="AF152" t="s">
+    <row r="130" spans="43:43">
+      <c r="AQ130" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="32:32">
-      <c r="AF153" t="s">
+    <row r="131" spans="43:43">
+      <c r="AQ131" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="32:32">
-      <c r="AF154" t="s">
+    <row r="132" spans="43:43">
+      <c r="AQ132" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="155" spans="32:32">
-      <c r="AF155" t="s">
+    <row r="133" spans="43:43">
+      <c r="AQ133" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="156" spans="32:32">
-      <c r="AF156" t="s">
+    <row r="134" spans="43:43">
+      <c r="AQ134" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="157" spans="32:32">
-      <c r="AF157" t="s">
+    <row r="135" spans="43:43">
+      <c r="AQ135" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="158" spans="32:32">
-      <c r="AF158" t="s">
+    <row r="136" spans="43:43">
+      <c r="AQ136" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="159" spans="32:32">
-      <c r="AF159" t="s">
+    <row r="137" spans="43:43">
+      <c r="AQ137" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="160" spans="32:32">
-      <c r="AF160" t="s">
+    <row r="138" spans="43:43">
+      <c r="AQ138" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="161" spans="32:32">
-      <c r="AF161" t="s">
+    <row r="139" spans="43:43">
+      <c r="AQ139" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="162" spans="32:32">
-      <c r="AF162" t="s">
+    <row r="140" spans="43:43">
+      <c r="AQ140" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="163" spans="32:32">
-      <c r="AF163" t="s">
+    <row r="141" spans="43:43">
+      <c r="AQ141" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="164" spans="32:32">
-      <c r="AF164" t="s">
+    <row r="142" spans="43:43">
+      <c r="AQ142" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="165" spans="32:32">
-      <c r="AF165" t="s">
+    <row r="143" spans="43:43">
+      <c r="AQ143" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="166" spans="32:32">
-      <c r="AF166" t="s">
+    <row r="144" spans="43:43">
+      <c r="AQ144" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="167" spans="32:32">
-      <c r="AF167" t="s">
+    <row r="145" spans="43:43">
+      <c r="AQ145" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="168" spans="32:32">
-      <c r="AF168" t="s">
+    <row r="146" spans="43:43">
+      <c r="AQ146" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="169" spans="32:32">
-      <c r="AF169" t="s">
+    <row r="147" spans="43:43">
+      <c r="AQ147" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="170" spans="32:32">
-      <c r="AF170" t="s">
+    <row r="148" spans="43:43">
+      <c r="AQ148" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="171" spans="32:32">
-      <c r="AF171" t="s">
+    <row r="149" spans="43:43">
+      <c r="AQ149" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="172" spans="32:32">
-      <c r="AF172" t="s">
+    <row r="150" spans="43:43">
+      <c r="AQ150" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="32:32">
-      <c r="AF173" t="s">
+    <row r="151" spans="43:43">
+      <c r="AQ151" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="174" spans="32:32">
-      <c r="AF174" t="s">
+    <row r="152" spans="43:43">
+      <c r="AQ152" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="175" spans="32:32">
-      <c r="AF175" t="s">
+    <row r="153" spans="43:43">
+      <c r="AQ153" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="176" spans="32:32">
-      <c r="AF176" t="s">
+    <row r="154" spans="43:43">
+      <c r="AQ154" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="32:32">
-      <c r="AF177" t="s">
+    <row r="155" spans="43:43">
+      <c r="AQ155" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="178" spans="32:32">
-      <c r="AF178" t="s">
+    <row r="156" spans="43:43">
+      <c r="AQ156" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="179" spans="32:32">
-      <c r="AF179" t="s">
+    <row r="157" spans="43:43">
+      <c r="AQ157" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="180" spans="32:32">
-      <c r="AF180" t="s">
+    <row r="158" spans="43:43">
+      <c r="AQ158" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="181" spans="32:32">
-      <c r="AF181" t="s">
+    <row r="159" spans="43:43">
+      <c r="AQ159" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="182" spans="32:32">
-      <c r="AF182" t="s">
+    <row r="160" spans="43:43">
+      <c r="AQ160" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="183" spans="32:32">
-      <c r="AF183" t="s">
+    <row r="161" spans="43:43">
+      <c r="AQ161" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="184" spans="32:32">
-      <c r="AF184" t="s">
+    <row r="162" spans="43:43">
+      <c r="AQ162" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="185" spans="32:32">
-      <c r="AF185" t="s">
+    <row r="163" spans="43:43">
+      <c r="AQ163" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="186" spans="32:32">
-      <c r="AF186" t="s">
+    <row r="164" spans="43:43">
+      <c r="AQ164" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="187" spans="32:32">
-      <c r="AF187" t="s">
+    <row r="165" spans="43:43">
+      <c r="AQ165" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="188" spans="32:32">
-      <c r="AF188" t="s">
+    <row r="166" spans="43:43">
+      <c r="AQ166" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="189" spans="32:32">
-      <c r="AF189" t="s">
+    <row r="167" spans="43:43">
+      <c r="AQ167" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="190" spans="32:32">
-      <c r="AF190" t="s">
+    <row r="168" spans="43:43">
+      <c r="AQ168" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="191" spans="32:32">
-      <c r="AF191" t="s">
+    <row r="169" spans="43:43">
+      <c r="AQ169" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="192" spans="32:32">
-      <c r="AF192" t="s">
+    <row r="170" spans="43:43">
+      <c r="AQ170" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="193" spans="32:32">
-      <c r="AF193" t="s">
+    <row r="171" spans="43:43">
+      <c r="AQ171" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="194" spans="32:32">
-      <c r="AF194" t="s">
+    <row r="172" spans="43:43">
+      <c r="AQ172" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="195" spans="32:32">
-      <c r="AF195" t="s">
+    <row r="173" spans="43:43">
+      <c r="AQ173" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="196" spans="32:32">
-      <c r="AF196" t="s">
+    <row r="174" spans="43:43">
+      <c r="AQ174" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="197" spans="32:32">
-      <c r="AF197" t="s">
+    <row r="175" spans="43:43">
+      <c r="AQ175" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="198" spans="32:32">
-      <c r="AF198" t="s">
+    <row r="176" spans="43:43">
+      <c r="AQ176" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="199" spans="32:32">
-      <c r="AF199" t="s">
+    <row r="177" spans="43:43">
+      <c r="AQ177" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="200" spans="32:32">
-      <c r="AF200" t="s">
+    <row r="178" spans="43:43">
+      <c r="AQ178" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="201" spans="32:32">
-      <c r="AF201" t="s">
+    <row r="179" spans="43:43">
+      <c r="AQ179" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="202" spans="32:32">
-      <c r="AF202" t="s">
+    <row r="180" spans="43:43">
+      <c r="AQ180" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="203" spans="32:32">
-      <c r="AF203" t="s">
+    <row r="181" spans="43:43">
+      <c r="AQ181" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="204" spans="32:32">
-      <c r="AF204" t="s">
+    <row r="182" spans="43:43">
+      <c r="AQ182" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="205" spans="32:32">
-      <c r="AF205" t="s">
+    <row r="183" spans="43:43">
+      <c r="AQ183" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="206" spans="32:32">
-      <c r="AF206" t="s">
+    <row r="184" spans="43:43">
+      <c r="AQ184" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="207" spans="32:32">
-      <c r="AF207" t="s">
+    <row r="185" spans="43:43">
+      <c r="AQ185" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="208" spans="32:32">
-      <c r="AF208" t="s">
+    <row r="186" spans="43:43">
+      <c r="AQ186" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="209" spans="32:32">
-      <c r="AF209" t="s">
+    <row r="187" spans="43:43">
+      <c r="AQ187" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="210" spans="32:32">
-      <c r="AF210" t="s">
+    <row r="188" spans="43:43">
+      <c r="AQ188" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="211" spans="32:32">
-      <c r="AF211" t="s">
+    <row r="189" spans="43:43">
+      <c r="AQ189" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="212" spans="32:32">
-      <c r="AF212" t="s">
+    <row r="190" spans="43:43">
+      <c r="AQ190" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="213" spans="32:32">
-      <c r="AF213" t="s">
+    <row r="191" spans="43:43">
+      <c r="AQ191" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="214" spans="32:32">
-      <c r="AF214" t="s">
+    <row r="192" spans="43:43">
+      <c r="AQ192" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="215" spans="32:32">
-      <c r="AF215" t="s">
+    <row r="193" spans="43:43">
+      <c r="AQ193" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="216" spans="32:32">
-      <c r="AF216" t="s">
+    <row r="194" spans="43:43">
+      <c r="AQ194" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="217" spans="32:32">
-      <c r="AF217" t="s">
+    <row r="195" spans="43:43">
+      <c r="AQ195" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="218" spans="32:32">
-      <c r="AF218" t="s">
+    <row r="196" spans="43:43">
+      <c r="AQ196" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="219" spans="32:32">
-      <c r="AF219" t="s">
+    <row r="197" spans="43:43">
+      <c r="AQ197" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="220" spans="32:32">
-      <c r="AF220" t="s">
+    <row r="198" spans="43:43">
+      <c r="AQ198" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="221" spans="32:32">
-      <c r="AF221" t="s">
+    <row r="199" spans="43:43">
+      <c r="AQ199" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="222" spans="32:32">
-      <c r="AF222" t="s">
+    <row r="200" spans="43:43">
+      <c r="AQ200" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="223" spans="32:32">
-      <c r="AF223" t="s">
+    <row r="201" spans="43:43">
+      <c r="AQ201" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="224" spans="32:32">
-      <c r="AF224" t="s">
+    <row r="202" spans="43:43">
+      <c r="AQ202" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="225" spans="32:32">
-      <c r="AF225" t="s">
+    <row r="203" spans="43:43">
+      <c r="AQ203" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="226" spans="32:32">
-      <c r="AF226" t="s">
+    <row r="204" spans="43:43">
+      <c r="AQ204" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="227" spans="32:32">
-      <c r="AF227" t="s">
+    <row r="205" spans="43:43">
+      <c r="AQ205" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="228" spans="32:32">
-      <c r="AF228" t="s">
+    <row r="206" spans="43:43">
+      <c r="AQ206" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="229" spans="32:32">
-      <c r="AF229" t="s">
+    <row r="207" spans="43:43">
+      <c r="AQ207" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="230" spans="32:32">
-      <c r="AF230" t="s">
+    <row r="208" spans="43:43">
+      <c r="AQ208" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="32:32">
-      <c r="AF231" t="s">
+    <row r="209" spans="43:43">
+      <c r="AQ209" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="232" spans="32:32">
-      <c r="AF232" t="s">
+    <row r="210" spans="43:43">
+      <c r="AQ210" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="233" spans="32:32">
-      <c r="AF233" t="s">
+    <row r="211" spans="43:43">
+      <c r="AQ211" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="234" spans="32:32">
-      <c r="AF234" t="s">
+    <row r="212" spans="43:43">
+      <c r="AQ212" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="235" spans="32:32">
-      <c r="AF235" t="s">
+    <row r="213" spans="43:43">
+      <c r="AQ213" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="236" spans="32:32">
-      <c r="AF236" t="s">
+    <row r="214" spans="43:43">
+      <c r="AQ214" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="237" spans="32:32">
-      <c r="AF237" t="s">
+    <row r="215" spans="43:43">
+      <c r="AQ215" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="238" spans="32:32">
-      <c r="AF238" t="s">
+    <row r="216" spans="43:43">
+      <c r="AQ216" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="239" spans="32:32">
-      <c r="AF239" t="s">
+    <row r="217" spans="43:43">
+      <c r="AQ217" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="32:32">
-      <c r="AF240" t="s">
+    <row r="218" spans="43:43">
+      <c r="AQ218" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="241" spans="32:32">
-      <c r="AF241" t="s">
+    <row r="219" spans="43:43">
+      <c r="AQ219" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="242" spans="32:32">
-      <c r="AF242" t="s">
+    <row r="220" spans="43:43">
+      <c r="AQ220" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="243" spans="32:32">
-      <c r="AF243" t="s">
+    <row r="221" spans="43:43">
+      <c r="AQ221" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="244" spans="32:32">
-      <c r="AF244" t="s">
+    <row r="222" spans="43:43">
+      <c r="AQ222" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="245" spans="32:32">
-      <c r="AF245" t="s">
+    <row r="223" spans="43:43">
+      <c r="AQ223" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="246" spans="32:32">
-      <c r="AF246" t="s">
+    <row r="224" spans="43:43">
+      <c r="AQ224" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="247" spans="32:32">
-      <c r="AF247" t="s">
+    <row r="225" spans="43:43">
+      <c r="AQ225" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="248" spans="32:32">
-      <c r="AF248" t="s">
+    <row r="226" spans="43:43">
+      <c r="AQ226" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="249" spans="32:32">
-      <c r="AF249" t="s">
+    <row r="227" spans="43:43">
+      <c r="AQ227" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="32:32">
-      <c r="AF250" t="s">
+    <row r="228" spans="43:43">
+      <c r="AQ228" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="251" spans="32:32">
-      <c r="AF251" t="s">
+    <row r="229" spans="43:43">
+      <c r="AQ229" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="252" spans="32:32">
-      <c r="AF252" t="s">
+    <row r="230" spans="43:43">
+      <c r="AQ230" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="253" spans="32:32">
-      <c r="AF253" t="s">
+    <row r="231" spans="43:43">
+      <c r="AQ231" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="254" spans="32:32">
-      <c r="AF254" t="s">
+    <row r="232" spans="43:43">
+      <c r="AQ232" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="255" spans="32:32">
-      <c r="AF255" t="s">
+    <row r="233" spans="43:43">
+      <c r="AQ233" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="256" spans="32:32">
-      <c r="AF256" t="s">
+    <row r="234" spans="43:43">
+      <c r="AQ234" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="257" spans="32:32">
-      <c r="AF257" t="s">
+    <row r="235" spans="43:43">
+      <c r="AQ235" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="258" spans="32:32">
-      <c r="AF258" t="s">
+    <row r="236" spans="43:43">
+      <c r="AQ236" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="259" spans="32:32">
-      <c r="AF259" t="s">
+    <row r="237" spans="43:43">
+      <c r="AQ237" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="260" spans="32:32">
-      <c r="AF260" t="s">
+    <row r="238" spans="43:43">
+      <c r="AQ238" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="261" spans="32:32">
-      <c r="AF261" t="s">
+    <row r="239" spans="43:43">
+      <c r="AQ239" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="262" spans="32:32">
-      <c r="AF262" t="s">
+    <row r="240" spans="43:43">
+      <c r="AQ240" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="263" spans="32:32">
-      <c r="AF263" t="s">
+    <row r="241" spans="43:43">
+      <c r="AQ241" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="264" spans="32:32">
-      <c r="AF264" t="s">
+    <row r="242" spans="43:43">
+      <c r="AQ242" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="265" spans="32:32">
-      <c r="AF265" t="s">
+    <row r="243" spans="43:43">
+      <c r="AQ243" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="266" spans="32:32">
-      <c r="AF266" t="s">
+    <row r="244" spans="43:43">
+      <c r="AQ244" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="267" spans="32:32">
-      <c r="AF267" t="s">
+    <row r="245" spans="43:43">
+      <c r="AQ245" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="268" spans="32:32">
-      <c r="AF268" t="s">
+    <row r="246" spans="43:43">
+      <c r="AQ246" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="269" spans="32:32">
-      <c r="AF269" t="s">
+    <row r="247" spans="43:43">
+      <c r="AQ247" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="270" spans="32:32">
-      <c r="AF270" t="s">
+    <row r="248" spans="43:43">
+      <c r="AQ248" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="271" spans="32:32">
-      <c r="AF271" t="s">
+    <row r="249" spans="43:43">
+      <c r="AQ249" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="272" spans="32:32">
-      <c r="AF272" t="s">
+    <row r="250" spans="43:43">
+      <c r="AQ250" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="273" spans="32:32">
-      <c r="AF273" t="s">
+    <row r="251" spans="43:43">
+      <c r="AQ251" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="274" spans="32:32">
-      <c r="AF274" t="s">
+    <row r="252" spans="43:43">
+      <c r="AQ252" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="275" spans="32:32">
-      <c r="AF275" t="s">
+    <row r="253" spans="43:43">
+      <c r="AQ253" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="276" spans="32:32">
-      <c r="AF276" t="s">
+    <row r="254" spans="43:43">
+      <c r="AQ254" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="277" spans="32:32">
-      <c r="AF277" t="s">
+    <row r="255" spans="43:43">
+      <c r="AQ255" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="278" spans="32:32">
-      <c r="AF278" t="s">
+    <row r="256" spans="43:43">
+      <c r="AQ256" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="279" spans="32:32">
-      <c r="AF279" t="s">
+    <row r="257" spans="43:43">
+      <c r="AQ257" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="280" spans="32:32">
-      <c r="AF280" t="s">
+    <row r="258" spans="43:43">
+      <c r="AQ258" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="281" spans="32:32">
-      <c r="AF281" t="s">
+    <row r="259" spans="43:43">
+      <c r="AQ259" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="282" spans="32:32">
-      <c r="AF282" t="s">
+    <row r="260" spans="43:43">
+      <c r="AQ260" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="283" spans="32:32">
-      <c r="AF283" t="s">
+    <row r="261" spans="43:43">
+      <c r="AQ261" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="284" spans="32:32">
-      <c r="AF284" t="s">
+    <row r="262" spans="43:43">
+      <c r="AQ262" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="285" spans="32:32">
-      <c r="AF285" t="s">
+    <row r="263" spans="43:43">
+      <c r="AQ263" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="286" spans="32:32">
-      <c r="AF286" t="s">
+    <row r="264" spans="43:43">
+      <c r="AQ264" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="287" spans="32:32">
-      <c r="AF287" t="s">
+    <row r="265" spans="43:43">
+      <c r="AQ265" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="288" spans="32:32">
-      <c r="AF288" t="s">
+    <row r="266" spans="43:43">
+      <c r="AQ266" t="s">
         <v>654</v>
+      </c>
+    </row>
+    <row r="267" spans="43:43">
+      <c r="AQ267" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="268" spans="43:43">
+      <c r="AQ268" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="269" spans="43:43">
+      <c r="AQ269" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="270" spans="43:43">
+      <c r="AQ270" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="271" spans="43:43">
+      <c r="AQ271" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="272" spans="43:43">
+      <c r="AQ272" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="273" spans="43:43">
+      <c r="AQ273" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="274" spans="43:43">
+      <c r="AQ274" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="275" spans="43:43">
+      <c r="AQ275" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="276" spans="43:43">
+      <c r="AQ276" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="277" spans="43:43">
+      <c r="AQ277" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="278" spans="43:43">
+      <c r="AQ278" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="279" spans="43:43">
+      <c r="AQ279" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="280" spans="43:43">
+      <c r="AQ280" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="281" spans="43:43">
+      <c r="AQ281" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="282" spans="43:43">
+      <c r="AQ282" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="283" spans="43:43">
+      <c r="AQ283" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="284" spans="43:43">
+      <c r="AQ284" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="285" spans="43:43">
+      <c r="AQ285" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="286" spans="43:43">
+      <c r="AQ286" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="287" spans="43:43">
+      <c r="AQ287" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="288" spans="43:43">
+      <c r="AQ288" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="289" spans="43:43">
+      <c r="AQ289" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="843">
   <si>
     <t>alias</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3101,7 +3104,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3145,7 +3148,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3172,7 +3175,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3884,6 +3887,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3908,27 +3916,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3951,122 +3959,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4093,738 +4101,738 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -4865,1594 +4873,1594 @@
   <sheetData>
     <row r="1" spans="5:50">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AX1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="5:50">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AX2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="5:50">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="5:50">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AQ4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="5:50">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="5:50">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="5:50">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="5:50">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AQ8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="5:50">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AQ9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="5:50">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="5:50">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="5:50">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="5:50">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="5:50">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="5:50">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="5:50">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="5:43">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="5:43">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="5:43">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="5:43">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="5:43">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="5:43">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ22" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="5:43">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="5:43">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="5:43">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="5:43">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="5:43">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="5:43">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="5:43">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="5:43">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="5:43">
       <c r="AQ31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="5:43">
       <c r="AQ32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="43:43">
       <c r="AQ33" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="43:43">
       <c r="AQ34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="43:43">
       <c r="AQ35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="43:43">
       <c r="AQ36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="43:43">
       <c r="AQ37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="43:43">
       <c r="AQ38" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="43:43">
       <c r="AQ39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="43:43">
       <c r="AQ40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="43:43">
       <c r="AQ41" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="43:43">
       <c r="AQ42" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="43:43">
       <c r="AQ43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="43:43">
       <c r="AQ44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="43:43">
       <c r="AQ45" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="43:43">
       <c r="AQ46" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="43:43">
       <c r="AQ47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="43:43">
       <c r="AQ48" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="844">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3104,7 +3107,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3148,7 +3151,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3892,6 +3895,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3916,27 +3924,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3959,122 +3967,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4101,738 +4109,738 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -4873,1594 +4881,1594 @@
   <sheetData>
     <row r="1" spans="5:50">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AX1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="5:50">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AX2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="5:50">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="5:50">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="5:50">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="5:50">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="5:50">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="5:50">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AQ8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="5:50">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="5:50">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="5:50">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="5:50">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="5:50">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="5:50">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="5:50">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="5:50">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="5:43">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="5:43">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="5:43">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="5:43">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="5:43">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="5:43">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="5:43">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="5:43">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="5:43">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="5:43">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="5:43">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="5:43">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="5:43">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="5:43">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="5:43">
       <c r="AQ31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="5:43">
       <c r="AQ32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="43:43">
       <c r="AQ33" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="43:43">
       <c r="AQ34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="43:43">
       <c r="AQ35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="43:43">
       <c r="AQ36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="43:43">
       <c r="AQ37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="43:43">
       <c r="AQ38" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="43:43">
       <c r="AQ39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="43:43">
       <c r="AQ40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="43:43">
       <c r="AQ41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="43:43">
       <c r="AQ42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="43:43">
       <c r="AQ43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="43:43">
       <c r="AQ44" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="43:43">
       <c r="AQ45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="43:43">
       <c r="AQ46" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="43:43">
       <c r="AQ47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="43:43">
       <c r="AQ48" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="845">
   <si>
     <t>alias</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3107,7 +3110,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3151,7 +3154,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3181,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3900,6 +3903,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3924,27 +3932,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3967,122 +3975,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4109,738 +4117,738 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -4881,1594 +4889,1594 @@
   <sheetData>
     <row r="1" spans="5:50">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AX1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="5:50">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AX2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="5:50">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="5:50">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="5:50">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="5:50">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="5:50">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="5:50">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="5:50">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="5:50">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="5:50">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="5:50">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="5:50">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="5:50">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="5:50">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="5:50">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="5:43">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="5:43">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="5:43">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="5:43">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="5:43">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="5:43">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="5:43">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="5:43">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="5:43">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="5:43">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="5:43">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="5:43">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="5:43">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="5:43">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AQ30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="5:43">
       <c r="AQ31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="5:43">
       <c r="AQ32" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="43:43">
       <c r="AQ33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="43:43">
       <c r="AQ34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="43:43">
       <c r="AQ35" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="43:43">
       <c r="AQ36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="43:43">
       <c r="AQ37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="43:43">
       <c r="AQ38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="43:43">
       <c r="AQ39" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="43:43">
       <c r="AQ40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="43:43">
       <c r="AQ41" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="43:43">
       <c r="AQ42" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="43:43">
       <c r="AQ43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="43:43">
       <c r="AQ44" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="43:43">
       <c r="AQ45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="43:43">
       <c r="AQ46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="43:43">
       <c r="AQ47" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="43:43">
       <c r="AQ48" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="846">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3110,7 +3113,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3154,7 +3157,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3184,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3908,6 +3911,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3932,27 +3940,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3975,122 +3983,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4117,738 +4125,738 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -4889,1594 +4897,1594 @@
   <sheetData>
     <row r="1" spans="5:50">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AX1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="5:50">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AX2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="5:50">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AQ3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="5:50">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="5:50">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="5:50">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="5:50">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AQ7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="5:50">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="5:50">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="5:50">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="5:50">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="5:50">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="5:50">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="5:50">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="5:50">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="5:50">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="5:43">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="5:43">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="5:43">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="5:43">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="5:43">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="5:43">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="5:43">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="5:43">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="5:43">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ25" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="5:43">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="5:43">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="5:43">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="5:43">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AQ29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="5:43">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AQ30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="5:43">
       <c r="AQ31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="5:43">
       <c r="AQ32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="43:43">
       <c r="AQ33" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="43:43">
       <c r="AQ34" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="43:43">
       <c r="AQ35" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="43:43">
       <c r="AQ36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="43:43">
       <c r="AQ37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="43:43">
       <c r="AQ38" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="43:43">
       <c r="AQ39" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="43:43">
       <c r="AQ40" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="43:43">
       <c r="AQ41" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="43:43">
       <c r="AQ42" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="43:43">
       <c r="AQ43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="43:43">
       <c r="AQ44" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="43:43">
       <c r="AQ45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="43:43">
       <c r="AQ46" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="43:43">
       <c r="AQ47" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="43:43">
       <c r="AQ48" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="851">
   <si>
     <t>alias</t>
   </si>
@@ -939,7 +939,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -960,13 +960,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -993,7 +993,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1005,37 +1005,37 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>particle classification</t>
+    <t>particle_classification</t>
   </si>
   <si>
     <t>(Optional) Particles are classified, based on their size, into six general categories:clay, silt, sand, gravel, cobbles, and boulders; should include amount of particle preceded by the name of the particle type; can include multiple values</t>
   </si>
   <si>
-    <t>sediment type</t>
+    <t>sediment_type</t>
   </si>
   <si>
     <t>(Optional) Information about the sediment type based on major constituents</t>
@@ -1047,7 +1047,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1059,7 +1059,7 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1071,37 +1071,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1116,31 +1116,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1152,37 +1152,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1194,25 +1194,25 @@
     <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1431,9 +1431,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1452,6 +1449,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1653,6 +1653,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1662,9 +1665,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1704,7 +1704,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1773,6 +1773,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1848,6 +1851,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1869,6 +1875,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1914,6 +1923,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1926,6 +1938,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1935,9 +1950,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1962,6 +1974,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2022,12 +2037,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2085,31 +2100,31 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>mean friction velocity</t>
+    <t>mean_friction_velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>mean peak friction velocity</t>
+    <t>mean_peak_friction_velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
@@ -2118,7 +2133,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2133,7 +2148,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>tidal stage</t>
+    <t>tidal_stage</t>
   </si>
   <si>
     <t>(Optional) Stage of tide</t>
@@ -2145,31 +2160,31 @@
     <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>total depth of water column</t>
+    <t>total_depth_of_water_column</t>
   </si>
   <si>
     <t>(Optional) Measurement of total depth of water column (Units: m)</t>
   </si>
   <si>
-    <t>water content</t>
+    <t>water_content</t>
   </si>
   <si>
     <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
   </si>
   <si>
-    <t>alkyl diethers</t>
+    <t>alkyl_diethers</t>
   </si>
   <si>
     <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
-    <t>aminopeptidase activity</t>
+    <t>aminopeptidase_activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
@@ -2181,7 +2196,7 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>bacterial carbon production</t>
+    <t>bacterial_carbon_production</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
@@ -2190,7 +2205,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2202,10 +2217,10 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>carbon/nitrogen ratio</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>carbonnitrogen_ratio</t>
   </si>
   <si>
     <t>(Optional) Ratio of amount or concentrations of carbon to nitrogen</t>
@@ -2223,37 +2238,37 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether lipids</t>
+    <t>diether_lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved carbon dioxide</t>
+    <t>dissolved_carbon_dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved hydrogen</t>
+    <t>dissolved_hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic carbon</t>
+    <t>dissolved_inorganic_carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved organic carbon</t>
+    <t>dissolved_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved organic nitrogen</t>
+    <t>dissolved_organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
@@ -2265,13 +2280,13 @@
     <t>(Optional) Methane (gas) amount or concentration at the time of sampling (Units: µM/L)</t>
   </si>
   <si>
-    <t>dissolved oxygen</t>
+    <t>dissolved_oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>glucosidase activity</t>
+    <t>glucosidase_activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
@@ -2280,10 +2295,10 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
-  </si>
-  <si>
-    <t>n-alkanes</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>nalkanes</t>
   </si>
   <si>
     <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
@@ -2301,37 +2316,37 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total nitrogen concentration</t>
+    <t>total_nitrogen_concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic carbon</t>
+    <t>organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic matter</t>
+    <t>organic_matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic nitrogen</t>
+    <t>organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate organic carbon</t>
+    <t>particulate_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
-    <t>petroleum hydrocarbon</t>
+    <t>petroleum_hydrocarbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
@@ -2349,7 +2364,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid fatty acid</t>
+    <t>phospholipid_fatty_acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2361,7 +2376,7 @@
     <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>redox potential</t>
+    <t>redox_potential</t>
   </si>
   <si>
     <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
@@ -2373,7 +2388,7 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>total carbon</t>
+    <t>total_carbon</t>
   </si>
   <si>
     <t>(Optional) Total carbon content (Units: µg/L)</t>
@@ -2391,7 +2406,7 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total organic carbon</t>
+    <t>total_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
@@ -2400,19 +2415,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>total nitrogen content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>total_nitrogen_content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2421,7 +2436,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2433,121 +2448,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2568,10 +2583,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>chemical administration</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4245,247 +4260,247 @@
         <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
@@ -4616,247 +4631,247 @@
         <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -4889,7 +4904,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AX289"/>
+  <dimension ref="E1:AX294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4915,7 +4930,7 @@
         <v>393</v>
       </c>
       <c r="AX1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="5:50">
@@ -4938,7 +4953,7 @@
         <v>394</v>
       </c>
       <c r="AX2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="5:50">
@@ -6485,6 +6500,31 @@
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="290" spans="43:43">
+      <c r="AQ290" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="291" spans="43:43">
+      <c r="AQ291" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="292" spans="43:43">
+      <c r="AQ292" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="293" spans="43:43">
+      <c r="AQ293" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="294" spans="43:43">
+      <c r="AQ294" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="846">
   <si>
     <t>alias</t>
   </si>
@@ -939,7 +939,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -960,13 +960,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -993,7 +993,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1005,37 +1005,37 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>particle_classification</t>
+    <t>particle classification</t>
   </si>
   <si>
     <t>(Optional) Particles are classified, based on their size, into six general categories:clay, silt, sand, gravel, cobbles, and boulders; should include amount of particle preceded by the name of the particle type; can include multiple values</t>
   </si>
   <si>
-    <t>sediment_type</t>
+    <t>sediment type</t>
   </si>
   <si>
     <t>(Optional) Information about the sediment type based on major constituents</t>
@@ -1047,7 +1047,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1059,7 +1059,7 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1071,37 +1071,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1116,31 +1116,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1152,37 +1152,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1194,25 +1194,25 @@
     <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1431,6 +1431,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1449,9 +1452,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1653,9 +1653,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1665,6 +1662,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1704,7 +1704,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1773,9 +1773,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1851,9 +1848,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1875,9 +1869,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1923,9 +1914,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1938,9 +1926,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1950,6 +1935,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1974,9 +1962,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2037,12 +2022,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2100,31 +2085,31 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>mean_friction_velocity</t>
+    <t>mean friction velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>mean_peak_friction_velocity</t>
+    <t>mean peak friction velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
@@ -2133,7 +2118,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2148,7 +2133,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>tidal_stage</t>
+    <t>tidal stage</t>
   </si>
   <si>
     <t>(Optional) Stage of tide</t>
@@ -2160,31 +2145,31 @@
     <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>total_depth_of_water_column</t>
+    <t>total depth of water column</t>
   </si>
   <si>
     <t>(Optional) Measurement of total depth of water column (Units: m)</t>
   </si>
   <si>
-    <t>water_content</t>
+    <t>water content</t>
   </si>
   <si>
     <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
   </si>
   <si>
-    <t>alkyl_diethers</t>
+    <t>alkyl diethers</t>
   </si>
   <si>
     <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
-    <t>aminopeptidase_activity</t>
+    <t>aminopeptidase activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
@@ -2196,7 +2181,7 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>bacterial_carbon_production</t>
+    <t>bacterial carbon production</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
@@ -2205,7 +2190,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2217,10 +2202,10 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>carbonnitrogen_ratio</t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>carbon/nitrogen ratio</t>
   </si>
   <si>
     <t>(Optional) Ratio of amount or concentrations of carbon to nitrogen</t>
@@ -2238,37 +2223,37 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether_lipids</t>
+    <t>diether lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved_carbon_dioxide</t>
+    <t>dissolved carbon dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_hydrogen</t>
+    <t>dissolved hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_carbon</t>
+    <t>dissolved inorganic carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_carbon</t>
+    <t>dissolved organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_nitrogen</t>
+    <t>dissolved organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
@@ -2280,13 +2265,13 @@
     <t>(Optional) Methane (gas) amount or concentration at the time of sampling (Units: µM/L)</t>
   </si>
   <si>
-    <t>dissolved_oxygen</t>
+    <t>dissolved oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>glucosidase_activity</t>
+    <t>glucosidase activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
@@ -2295,10 +2280,10 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>nalkanes</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+  </si>
+  <si>
+    <t>n-alkanes</t>
   </si>
   <si>
     <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
@@ -2316,37 +2301,37 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_concentration</t>
+    <t>total nitrogen concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_carbon</t>
+    <t>organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_matter</t>
+    <t>organic matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic_nitrogen</t>
+    <t>organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate_organic_carbon</t>
+    <t>particulate organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
-    <t>petroleum_hydrocarbon</t>
+    <t>petroleum hydrocarbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
@@ -2364,7 +2349,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid_fatty_acid</t>
+    <t>phospholipid fatty acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2376,7 +2361,7 @@
     <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>redox_potential</t>
+    <t>redox potential</t>
   </si>
   <si>
     <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
@@ -2388,7 +2373,7 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>total_carbon</t>
+    <t>total carbon</t>
   </si>
   <si>
     <t>(Optional) Total carbon content (Units: µg/L)</t>
@@ -2406,7 +2391,7 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_organic_carbon</t>
+    <t>total organic carbon</t>
   </si>
   <si>
     <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
@@ -2415,19 +2400,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>total_nitrogen_content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>total nitrogen content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2436,7 +2421,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2448,121 +2433,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2583,10 +2568,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>chemical_administration</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4260,247 +4245,247 @@
         <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:123" ht="150" customHeight="1">
@@ -4631,247 +4616,247 @@
         <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -4904,7 +4889,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AX294"/>
+  <dimension ref="E1:AX289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4930,7 +4915,7 @@
         <v>393</v>
       </c>
       <c r="AX1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="5:50">
@@ -4953,7 +4938,7 @@
         <v>394</v>
       </c>
       <c r="AX2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="5:50">
@@ -6500,31 +6485,6 @@
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
         <v>681</v>
-      </c>
-    </row>
-    <row r="290" spans="43:43">
-      <c r="AQ290" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="291" spans="43:43">
-      <c r="AQ291" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="292" spans="43:43">
-      <c r="AQ292" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="293" spans="43:43">
-      <c r="AQ293" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="294" spans="43:43">
-      <c r="AQ294" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -18,26 +18,26 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$P$1:$P$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$R$1:$R$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$Z$1:$Z$3</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="tidalstage">'cv_sample'!$AX$1:$AX$2</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
+    <definedName name="tidalstage">'cv_sample'!$AZ$1:$AZ$2</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="850">
   <si>
     <t>alias</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4108,7 +4120,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DS2"/>
+  <dimension ref="A1:DU2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4117,7 +4129,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123">
+    <row r="1" spans="1:125">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4131,19 +4143,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -4164,10 +4176,10 @@
         <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>340</v>
@@ -4194,10 +4206,10 @@
         <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>363</v>
@@ -4245,10 +4257,10 @@
         <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>393</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>395</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>686</v>
@@ -4266,10 +4278,10 @@
         <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>702</v>
@@ -4487,8 +4499,14 @@
       <c r="DS1" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="2" spans="1:123" ht="150" customHeight="1">
+      <c r="DT1" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2" spans="1:125" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4502,19 +4520,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4535,10 +4553,10 @@
         <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>341</v>
@@ -4565,10 +4583,10 @@
         <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>364</v>
@@ -4616,10 +4634,10 @@
         <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>394</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>396</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>687</v>
@@ -4637,10 +4655,10 @@
         <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="AY2" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>703</v>
@@ -4858,28 +4876,34 @@
       <c r="DS2" s="2" t="s">
         <v>845</v>
       </c>
+      <c r="DT2" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>849</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
       <formula1>tidalstage</formula1>
     </dataValidation>
   </dataValidations>
@@ -4889,1602 +4913,1602 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AX289"/>
+  <dimension ref="G1:AZ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:50">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:52">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="7:52">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="7:52">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="7:52">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="7:52">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="7:52">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="7:52">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="7:52">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="7:52">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="7:52">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="7:52">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="7:52">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="7:52">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="7:52">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="7:52">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="7:52">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="7:45">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="7:45">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="7:45">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="7:45">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="7:45">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="7:45">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="7:45">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="7:45">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="7:45">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="7:45">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="7:45">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="7:45">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="7:45">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="2" spans="5:50">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AS29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="7:45">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="P2" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>357</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="3" spans="5:50">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="5:50">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="5:50">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="5:50">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="5:50">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="5:50">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="5:50">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="5:50">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="5:50">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="12" spans="5:50">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="5:50">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" spans="5:50">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="5:50">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="5:50">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="5:43">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="18" spans="5:43">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19" spans="5:43">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="5:43">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="5:43">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="5:43">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="23" spans="5:43">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="5:43">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="25" spans="5:43">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="5:43">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="5:43">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="28" spans="5:43">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="5:43">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="30" spans="5:43">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="5:43">
-      <c r="AQ31" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="5:43">
-      <c r="AQ32" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="33" spans="43:43">
-      <c r="AQ33" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="43:43">
-      <c r="AQ34" t="s">
+      <c r="AS30" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="43:43">
-      <c r="AQ35" t="s">
+    <row r="31" spans="7:45">
+      <c r="AS31" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="36" spans="43:43">
-      <c r="AQ36" t="s">
+    <row r="32" spans="7:45">
+      <c r="AS32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="43:43">
-      <c r="AQ37" t="s">
+    <row r="33" spans="45:45">
+      <c r="AS33" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="43:43">
-      <c r="AQ38" t="s">
+    <row r="34" spans="45:45">
+      <c r="AS34" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="43:43">
-      <c r="AQ39" t="s">
+    <row r="35" spans="45:45">
+      <c r="AS35" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="43:43">
-      <c r="AQ40" t="s">
+    <row r="36" spans="45:45">
+      <c r="AS36" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="43:43">
-      <c r="AQ41" t="s">
+    <row r="37" spans="45:45">
+      <c r="AS37" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="42" spans="43:43">
-      <c r="AQ42" t="s">
+    <row r="38" spans="45:45">
+      <c r="AS38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="43:43">
-      <c r="AQ43" t="s">
+    <row r="39" spans="45:45">
+      <c r="AS39" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="43:43">
-      <c r="AQ44" t="s">
+    <row r="40" spans="45:45">
+      <c r="AS40" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="43:43">
-      <c r="AQ45" t="s">
+    <row r="41" spans="45:45">
+      <c r="AS41" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="43:43">
-      <c r="AQ46" t="s">
+    <row r="42" spans="45:45">
+      <c r="AS42" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="47" spans="43:43">
-      <c r="AQ47" t="s">
+    <row r="43" spans="45:45">
+      <c r="AS43" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="48" spans="43:43">
-      <c r="AQ48" t="s">
+    <row r="44" spans="45:45">
+      <c r="AS44" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="49" spans="43:43">
-      <c r="AQ49" t="s">
+    <row r="45" spans="45:45">
+      <c r="AS45" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="50" spans="43:43">
-      <c r="AQ50" t="s">
+    <row r="46" spans="45:45">
+      <c r="AS46" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="43:43">
-      <c r="AQ51" t="s">
+    <row r="47" spans="45:45">
+      <c r="AS47" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="43:43">
-      <c r="AQ52" t="s">
+    <row r="48" spans="45:45">
+      <c r="AS48" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="43:43">
-      <c r="AQ53" t="s">
+    <row r="49" spans="45:45">
+      <c r="AS49" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="54" spans="43:43">
-      <c r="AQ54" t="s">
+    <row r="50" spans="45:45">
+      <c r="AS50" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="55" spans="43:43">
-      <c r="AQ55" t="s">
+    <row r="51" spans="45:45">
+      <c r="AS51" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="43:43">
-      <c r="AQ56" t="s">
+    <row r="52" spans="45:45">
+      <c r="AS52" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="57" spans="43:43">
-      <c r="AQ57" t="s">
+    <row r="53" spans="45:45">
+      <c r="AS53" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="58" spans="43:43">
-      <c r="AQ58" t="s">
+    <row r="54" spans="45:45">
+      <c r="AS54" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="43:43">
-      <c r="AQ59" t="s">
+    <row r="55" spans="45:45">
+      <c r="AS55" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="60" spans="43:43">
-      <c r="AQ60" t="s">
+    <row r="56" spans="45:45">
+      <c r="AS56" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="43:43">
-      <c r="AQ61" t="s">
+    <row r="57" spans="45:45">
+      <c r="AS57" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="62" spans="43:43">
-      <c r="AQ62" t="s">
+    <row r="58" spans="45:45">
+      <c r="AS58" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="63" spans="43:43">
-      <c r="AQ63" t="s">
+    <row r="59" spans="45:45">
+      <c r="AS59" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="64" spans="43:43">
-      <c r="AQ64" t="s">
+    <row r="60" spans="45:45">
+      <c r="AS60" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="65" spans="43:43">
-      <c r="AQ65" t="s">
+    <row r="61" spans="45:45">
+      <c r="AS61" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="66" spans="43:43">
-      <c r="AQ66" t="s">
+    <row r="62" spans="45:45">
+      <c r="AS62" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="43:43">
-      <c r="AQ67" t="s">
+    <row r="63" spans="45:45">
+      <c r="AS63" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="43:43">
-      <c r="AQ68" t="s">
+    <row r="64" spans="45:45">
+      <c r="AS64" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="43:43">
-      <c r="AQ69" t="s">
+    <row r="65" spans="45:45">
+      <c r="AS65" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="43:43">
-      <c r="AQ70" t="s">
+    <row r="66" spans="45:45">
+      <c r="AS66" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="71" spans="43:43">
-      <c r="AQ71" t="s">
+    <row r="67" spans="45:45">
+      <c r="AS67" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="72" spans="43:43">
-      <c r="AQ72" t="s">
+    <row r="68" spans="45:45">
+      <c r="AS68" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="73" spans="43:43">
-      <c r="AQ73" t="s">
+    <row r="69" spans="45:45">
+      <c r="AS69" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="43:43">
-      <c r="AQ74" t="s">
+    <row r="70" spans="45:45">
+      <c r="AS70" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="43:43">
-      <c r="AQ75" t="s">
+    <row r="71" spans="45:45">
+      <c r="AS71" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="76" spans="43:43">
-      <c r="AQ76" t="s">
+    <row r="72" spans="45:45">
+      <c r="AS72" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="77" spans="43:43">
-      <c r="AQ77" t="s">
+    <row r="73" spans="45:45">
+      <c r="AS73" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="78" spans="43:43">
-      <c r="AQ78" t="s">
+    <row r="74" spans="45:45">
+      <c r="AS74" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="79" spans="43:43">
-      <c r="AQ79" t="s">
+    <row r="75" spans="45:45">
+      <c r="AS75" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="80" spans="43:43">
-      <c r="AQ80" t="s">
+    <row r="76" spans="45:45">
+      <c r="AS76" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="81" spans="43:43">
-      <c r="AQ81" t="s">
+    <row r="77" spans="45:45">
+      <c r="AS77" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="43:43">
-      <c r="AQ82" t="s">
+    <row r="78" spans="45:45">
+      <c r="AS78" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="83" spans="43:43">
-      <c r="AQ83" t="s">
+    <row r="79" spans="45:45">
+      <c r="AS79" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="84" spans="43:43">
-      <c r="AQ84" t="s">
+    <row r="80" spans="45:45">
+      <c r="AS80" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="43:43">
-      <c r="AQ85" t="s">
+    <row r="81" spans="45:45">
+      <c r="AS81" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="86" spans="43:43">
-      <c r="AQ86" t="s">
+    <row r="82" spans="45:45">
+      <c r="AS82" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="87" spans="43:43">
-      <c r="AQ87" t="s">
+    <row r="83" spans="45:45">
+      <c r="AS83" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="88" spans="43:43">
-      <c r="AQ88" t="s">
+    <row r="84" spans="45:45">
+      <c r="AS84" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="89" spans="43:43">
-      <c r="AQ89" t="s">
+    <row r="85" spans="45:45">
+      <c r="AS85" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="90" spans="43:43">
-      <c r="AQ90" t="s">
+    <row r="86" spans="45:45">
+      <c r="AS86" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="91" spans="43:43">
-      <c r="AQ91" t="s">
+    <row r="87" spans="45:45">
+      <c r="AS87" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="43:43">
-      <c r="AQ92" t="s">
+    <row r="88" spans="45:45">
+      <c r="AS88" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="93" spans="43:43">
-      <c r="AQ93" t="s">
+    <row r="89" spans="45:45">
+      <c r="AS89" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="94" spans="43:43">
-      <c r="AQ94" t="s">
+    <row r="90" spans="45:45">
+      <c r="AS90" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="95" spans="43:43">
-      <c r="AQ95" t="s">
+    <row r="91" spans="45:45">
+      <c r="AS91" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="43:43">
-      <c r="AQ96" t="s">
+    <row r="92" spans="45:45">
+      <c r="AS92" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="97" spans="43:43">
-      <c r="AQ97" t="s">
+    <row r="93" spans="45:45">
+      <c r="AS93" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="98" spans="43:43">
-      <c r="AQ98" t="s">
+    <row r="94" spans="45:45">
+      <c r="AS94" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="99" spans="43:43">
-      <c r="AQ99" t="s">
+    <row r="95" spans="45:45">
+      <c r="AS95" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="43:43">
-      <c r="AQ100" t="s">
+    <row r="96" spans="45:45">
+      <c r="AS96" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="101" spans="43:43">
-      <c r="AQ101" t="s">
+    <row r="97" spans="45:45">
+      <c r="AS97" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="102" spans="43:43">
-      <c r="AQ102" t="s">
+    <row r="98" spans="45:45">
+      <c r="AS98" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="103" spans="43:43">
-      <c r="AQ103" t="s">
+    <row r="99" spans="45:45">
+      <c r="AS99" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="43:43">
-      <c r="AQ104" t="s">
+    <row r="100" spans="45:45">
+      <c r="AS100" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="105" spans="43:43">
-      <c r="AQ105" t="s">
+    <row r="101" spans="45:45">
+      <c r="AS101" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="106" spans="43:43">
-      <c r="AQ106" t="s">
+    <row r="102" spans="45:45">
+      <c r="AS102" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="107" spans="43:43">
-      <c r="AQ107" t="s">
+    <row r="103" spans="45:45">
+      <c r="AS103" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="108" spans="43:43">
-      <c r="AQ108" t="s">
+    <row r="104" spans="45:45">
+      <c r="AS104" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="43:43">
-      <c r="AQ109" t="s">
+    <row r="105" spans="45:45">
+      <c r="AS105" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="43:43">
-      <c r="AQ110" t="s">
+    <row r="106" spans="45:45">
+      <c r="AS106" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="111" spans="43:43">
-      <c r="AQ111" t="s">
+    <row r="107" spans="45:45">
+      <c r="AS107" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="43:43">
-      <c r="AQ112" t="s">
+    <row r="108" spans="45:45">
+      <c r="AS108" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="43:43">
-      <c r="AQ113" t="s">
+    <row r="109" spans="45:45">
+      <c r="AS109" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="114" spans="43:43">
-      <c r="AQ114" t="s">
+    <row r="110" spans="45:45">
+      <c r="AS110" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="115" spans="43:43">
-      <c r="AQ115" t="s">
+    <row r="111" spans="45:45">
+      <c r="AS111" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="116" spans="43:43">
-      <c r="AQ116" t="s">
+    <row r="112" spans="45:45">
+      <c r="AS112" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="117" spans="43:43">
-      <c r="AQ117" t="s">
+    <row r="113" spans="45:45">
+      <c r="AS113" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="118" spans="43:43">
-      <c r="AQ118" t="s">
+    <row r="114" spans="45:45">
+      <c r="AS114" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="43:43">
-      <c r="AQ119" t="s">
+    <row r="115" spans="45:45">
+      <c r="AS115" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="120" spans="43:43">
-      <c r="AQ120" t="s">
+    <row r="116" spans="45:45">
+      <c r="AS116" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="121" spans="43:43">
-      <c r="AQ121" t="s">
+    <row r="117" spans="45:45">
+      <c r="AS117" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="122" spans="43:43">
-      <c r="AQ122" t="s">
+    <row r="118" spans="45:45">
+      <c r="AS118" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="123" spans="43:43">
-      <c r="AQ123" t="s">
+    <row r="119" spans="45:45">
+      <c r="AS119" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="43:43">
-      <c r="AQ124" t="s">
+    <row r="120" spans="45:45">
+      <c r="AS120" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="125" spans="43:43">
-      <c r="AQ125" t="s">
+    <row r="121" spans="45:45">
+      <c r="AS121" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="126" spans="43:43">
-      <c r="AQ126" t="s">
+    <row r="122" spans="45:45">
+      <c r="AS122" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="127" spans="43:43">
-      <c r="AQ127" t="s">
+    <row r="123" spans="45:45">
+      <c r="AS123" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="128" spans="43:43">
-      <c r="AQ128" t="s">
+    <row r="124" spans="45:45">
+      <c r="AS124" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="129" spans="43:43">
-      <c r="AQ129" t="s">
+    <row r="125" spans="45:45">
+      <c r="AS125" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="43:43">
-      <c r="AQ130" t="s">
+    <row r="126" spans="45:45">
+      <c r="AS126" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="43:43">
-      <c r="AQ131" t="s">
+    <row r="127" spans="45:45">
+      <c r="AS127" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="132" spans="43:43">
-      <c r="AQ132" t="s">
+    <row r="128" spans="45:45">
+      <c r="AS128" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="43:43">
-      <c r="AQ133" t="s">
+    <row r="129" spans="45:45">
+      <c r="AS129" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="43:43">
-      <c r="AQ134" t="s">
+    <row r="130" spans="45:45">
+      <c r="AS130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="43:43">
-      <c r="AQ135" t="s">
+    <row r="131" spans="45:45">
+      <c r="AS131" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="136" spans="43:43">
-      <c r="AQ136" t="s">
+    <row r="132" spans="45:45">
+      <c r="AS132" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="137" spans="43:43">
-      <c r="AQ137" t="s">
+    <row r="133" spans="45:45">
+      <c r="AS133" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="43:43">
-      <c r="AQ138" t="s">
+    <row r="134" spans="45:45">
+      <c r="AS134" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="139" spans="43:43">
-      <c r="AQ139" t="s">
+    <row r="135" spans="45:45">
+      <c r="AS135" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="140" spans="43:43">
-      <c r="AQ140" t="s">
+    <row r="136" spans="45:45">
+      <c r="AS136" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="141" spans="43:43">
-      <c r="AQ141" t="s">
+    <row r="137" spans="45:45">
+      <c r="AS137" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="142" spans="43:43">
-      <c r="AQ142" t="s">
+    <row r="138" spans="45:45">
+      <c r="AS138" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="43:43">
-      <c r="AQ143" t="s">
+    <row r="139" spans="45:45">
+      <c r="AS139" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="144" spans="43:43">
-      <c r="AQ144" t="s">
+    <row r="140" spans="45:45">
+      <c r="AS140" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="145" spans="43:43">
-      <c r="AQ145" t="s">
+    <row r="141" spans="45:45">
+      <c r="AS141" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="146" spans="43:43">
-      <c r="AQ146" t="s">
+    <row r="142" spans="45:45">
+      <c r="AS142" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="147" spans="43:43">
-      <c r="AQ147" t="s">
+    <row r="143" spans="45:45">
+      <c r="AS143" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="148" spans="43:43">
-      <c r="AQ148" t="s">
+    <row r="144" spans="45:45">
+      <c r="AS144" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="149" spans="43:43">
-      <c r="AQ149" t="s">
+    <row r="145" spans="45:45">
+      <c r="AS145" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="43:43">
-      <c r="AQ150" t="s">
+    <row r="146" spans="45:45">
+      <c r="AS146" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="151" spans="43:43">
-      <c r="AQ151" t="s">
+    <row r="147" spans="45:45">
+      <c r="AS147" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="152" spans="43:43">
-      <c r="AQ152" t="s">
+    <row r="148" spans="45:45">
+      <c r="AS148" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="153" spans="43:43">
-      <c r="AQ153" t="s">
+    <row r="149" spans="45:45">
+      <c r="AS149" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="154" spans="43:43">
-      <c r="AQ154" t="s">
+    <row r="150" spans="45:45">
+      <c r="AS150" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="43:43">
-      <c r="AQ155" t="s">
+    <row r="151" spans="45:45">
+      <c r="AS151" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="156" spans="43:43">
-      <c r="AQ156" t="s">
+    <row r="152" spans="45:45">
+      <c r="AS152" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="157" spans="43:43">
-      <c r="AQ157" t="s">
+    <row r="153" spans="45:45">
+      <c r="AS153" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="158" spans="43:43">
-      <c r="AQ158" t="s">
+    <row r="154" spans="45:45">
+      <c r="AS154" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="159" spans="43:43">
-      <c r="AQ159" t="s">
+    <row r="155" spans="45:45">
+      <c r="AS155" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="160" spans="43:43">
-      <c r="AQ160" t="s">
+    <row r="156" spans="45:45">
+      <c r="AS156" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="161" spans="43:43">
-      <c r="AQ161" t="s">
+    <row r="157" spans="45:45">
+      <c r="AS157" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="162" spans="43:43">
-      <c r="AQ162" t="s">
+    <row r="158" spans="45:45">
+      <c r="AS158" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="163" spans="43:43">
-      <c r="AQ163" t="s">
+    <row r="159" spans="45:45">
+      <c r="AS159" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="164" spans="43:43">
-      <c r="AQ164" t="s">
+    <row r="160" spans="45:45">
+      <c r="AS160" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="165" spans="43:43">
-      <c r="AQ165" t="s">
+    <row r="161" spans="45:45">
+      <c r="AS161" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="166" spans="43:43">
-      <c r="AQ166" t="s">
+    <row r="162" spans="45:45">
+      <c r="AS162" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="167" spans="43:43">
-      <c r="AQ167" t="s">
+    <row r="163" spans="45:45">
+      <c r="AS163" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="168" spans="43:43">
-      <c r="AQ168" t="s">
+    <row r="164" spans="45:45">
+      <c r="AS164" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="169" spans="43:43">
-      <c r="AQ169" t="s">
+    <row r="165" spans="45:45">
+      <c r="AS165" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="170" spans="43:43">
-      <c r="AQ170" t="s">
+    <row r="166" spans="45:45">
+      <c r="AS166" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="43:43">
-      <c r="AQ171" t="s">
+    <row r="167" spans="45:45">
+      <c r="AS167" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="172" spans="43:43">
-      <c r="AQ172" t="s">
+    <row r="168" spans="45:45">
+      <c r="AS168" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="173" spans="43:43">
-      <c r="AQ173" t="s">
+    <row r="169" spans="45:45">
+      <c r="AS169" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="174" spans="43:43">
-      <c r="AQ174" t="s">
+    <row r="170" spans="45:45">
+      <c r="AS170" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="175" spans="43:43">
-      <c r="AQ175" t="s">
+    <row r="171" spans="45:45">
+      <c r="AS171" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="176" spans="43:43">
-      <c r="AQ176" t="s">
+    <row r="172" spans="45:45">
+      <c r="AS172" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="177" spans="43:43">
-      <c r="AQ177" t="s">
+    <row r="173" spans="45:45">
+      <c r="AS173" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="178" spans="43:43">
-      <c r="AQ178" t="s">
+    <row r="174" spans="45:45">
+      <c r="AS174" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="179" spans="43:43">
-      <c r="AQ179" t="s">
+    <row r="175" spans="45:45">
+      <c r="AS175" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="180" spans="43:43">
-      <c r="AQ180" t="s">
+    <row r="176" spans="45:45">
+      <c r="AS176" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="181" spans="43:43">
-      <c r="AQ181" t="s">
+    <row r="177" spans="45:45">
+      <c r="AS177" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="182" spans="43:43">
-      <c r="AQ182" t="s">
+    <row r="178" spans="45:45">
+      <c r="AS178" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="183" spans="43:43">
-      <c r="AQ183" t="s">
+    <row r="179" spans="45:45">
+      <c r="AS179" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="184" spans="43:43">
-      <c r="AQ184" t="s">
+    <row r="180" spans="45:45">
+      <c r="AS180" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="185" spans="43:43">
-      <c r="AQ185" t="s">
+    <row r="181" spans="45:45">
+      <c r="AS181" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="186" spans="43:43">
-      <c r="AQ186" t="s">
+    <row r="182" spans="45:45">
+      <c r="AS182" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="187" spans="43:43">
-      <c r="AQ187" t="s">
+    <row r="183" spans="45:45">
+      <c r="AS183" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="43:43">
-      <c r="AQ188" t="s">
+    <row r="184" spans="45:45">
+      <c r="AS184" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="189" spans="43:43">
-      <c r="AQ189" t="s">
+    <row r="185" spans="45:45">
+      <c r="AS185" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="190" spans="43:43">
-      <c r="AQ190" t="s">
+    <row r="186" spans="45:45">
+      <c r="AS186" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="191" spans="43:43">
-      <c r="AQ191" t="s">
+    <row r="187" spans="45:45">
+      <c r="AS187" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="192" spans="43:43">
-      <c r="AQ192" t="s">
+    <row r="188" spans="45:45">
+      <c r="AS188" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="193" spans="43:43">
-      <c r="AQ193" t="s">
+    <row r="189" spans="45:45">
+      <c r="AS189" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="194" spans="43:43">
-      <c r="AQ194" t="s">
+    <row r="190" spans="45:45">
+      <c r="AS190" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="43:43">
-      <c r="AQ195" t="s">
+    <row r="191" spans="45:45">
+      <c r="AS191" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="196" spans="43:43">
-      <c r="AQ196" t="s">
+    <row r="192" spans="45:45">
+      <c r="AS192" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="197" spans="43:43">
-      <c r="AQ197" t="s">
+    <row r="193" spans="45:45">
+      <c r="AS193" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="198" spans="43:43">
-      <c r="AQ198" t="s">
+    <row r="194" spans="45:45">
+      <c r="AS194" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="199" spans="43:43">
-      <c r="AQ199" t="s">
+    <row r="195" spans="45:45">
+      <c r="AS195" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="200" spans="43:43">
-      <c r="AQ200" t="s">
+    <row r="196" spans="45:45">
+      <c r="AS196" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="201" spans="43:43">
-      <c r="AQ201" t="s">
+    <row r="197" spans="45:45">
+      <c r="AS197" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="202" spans="43:43">
-      <c r="AQ202" t="s">
+    <row r="198" spans="45:45">
+      <c r="AS198" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="203" spans="43:43">
-      <c r="AQ203" t="s">
+    <row r="199" spans="45:45">
+      <c r="AS199" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="204" spans="43:43">
-      <c r="AQ204" t="s">
+    <row r="200" spans="45:45">
+      <c r="AS200" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="205" spans="43:43">
-      <c r="AQ205" t="s">
+    <row r="201" spans="45:45">
+      <c r="AS201" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="206" spans="43:43">
-      <c r="AQ206" t="s">
+    <row r="202" spans="45:45">
+      <c r="AS202" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="207" spans="43:43">
-      <c r="AQ207" t="s">
+    <row r="203" spans="45:45">
+      <c r="AS203" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="208" spans="43:43">
-      <c r="AQ208" t="s">
+    <row r="204" spans="45:45">
+      <c r="AS204" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="209" spans="43:43">
-      <c r="AQ209" t="s">
+    <row r="205" spans="45:45">
+      <c r="AS205" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="210" spans="43:43">
-      <c r="AQ210" t="s">
+    <row r="206" spans="45:45">
+      <c r="AS206" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="211" spans="43:43">
-      <c r="AQ211" t="s">
+    <row r="207" spans="45:45">
+      <c r="AS207" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="212" spans="43:43">
-      <c r="AQ212" t="s">
+    <row r="208" spans="45:45">
+      <c r="AS208" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="213" spans="43:43">
-      <c r="AQ213" t="s">
+    <row r="209" spans="45:45">
+      <c r="AS209" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="214" spans="43:43">
-      <c r="AQ214" t="s">
+    <row r="210" spans="45:45">
+      <c r="AS210" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="215" spans="43:43">
-      <c r="AQ215" t="s">
+    <row r="211" spans="45:45">
+      <c r="AS211" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="216" spans="43:43">
-      <c r="AQ216" t="s">
+    <row r="212" spans="45:45">
+      <c r="AS212" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="217" spans="43:43">
-      <c r="AQ217" t="s">
+    <row r="213" spans="45:45">
+      <c r="AS213" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="218" spans="43:43">
-      <c r="AQ218" t="s">
+    <row r="214" spans="45:45">
+      <c r="AS214" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="219" spans="43:43">
-      <c r="AQ219" t="s">
+    <row r="215" spans="45:45">
+      <c r="AS215" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="220" spans="43:43">
-      <c r="AQ220" t="s">
+    <row r="216" spans="45:45">
+      <c r="AS216" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="221" spans="43:43">
-      <c r="AQ221" t="s">
+    <row r="217" spans="45:45">
+      <c r="AS217" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="222" spans="43:43">
-      <c r="AQ222" t="s">
+    <row r="218" spans="45:45">
+      <c r="AS218" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="223" spans="43:43">
-      <c r="AQ223" t="s">
+    <row r="219" spans="45:45">
+      <c r="AS219" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="224" spans="43:43">
-      <c r="AQ224" t="s">
+    <row r="220" spans="45:45">
+      <c r="AS220" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="225" spans="43:43">
-      <c r="AQ225" t="s">
+    <row r="221" spans="45:45">
+      <c r="AS221" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="226" spans="43:43">
-      <c r="AQ226" t="s">
+    <row r="222" spans="45:45">
+      <c r="AS222" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="227" spans="43:43">
-      <c r="AQ227" t="s">
+    <row r="223" spans="45:45">
+      <c r="AS223" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="228" spans="43:43">
-      <c r="AQ228" t="s">
+    <row r="224" spans="45:45">
+      <c r="AS224" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="229" spans="43:43">
-      <c r="AQ229" t="s">
+    <row r="225" spans="45:45">
+      <c r="AS225" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="230" spans="43:43">
-      <c r="AQ230" t="s">
+    <row r="226" spans="45:45">
+      <c r="AS226" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="231" spans="43:43">
-      <c r="AQ231" t="s">
+    <row r="227" spans="45:45">
+      <c r="AS227" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="232" spans="43:43">
-      <c r="AQ232" t="s">
+    <row r="228" spans="45:45">
+      <c r="AS228" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="233" spans="43:43">
-      <c r="AQ233" t="s">
+    <row r="229" spans="45:45">
+      <c r="AS229" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="234" spans="43:43">
-      <c r="AQ234" t="s">
+    <row r="230" spans="45:45">
+      <c r="AS230" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="235" spans="43:43">
-      <c r="AQ235" t="s">
+    <row r="231" spans="45:45">
+      <c r="AS231" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="236" spans="43:43">
-      <c r="AQ236" t="s">
+    <row r="232" spans="45:45">
+      <c r="AS232" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="237" spans="43:43">
-      <c r="AQ237" t="s">
+    <row r="233" spans="45:45">
+      <c r="AS233" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="238" spans="43:43">
-      <c r="AQ238" t="s">
+    <row r="234" spans="45:45">
+      <c r="AS234" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="239" spans="43:43">
-      <c r="AQ239" t="s">
+    <row r="235" spans="45:45">
+      <c r="AS235" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="240" spans="43:43">
-      <c r="AQ240" t="s">
+    <row r="236" spans="45:45">
+      <c r="AS236" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="43:43">
-      <c r="AQ241" t="s">
+    <row r="237" spans="45:45">
+      <c r="AS237" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="242" spans="43:43">
-      <c r="AQ242" t="s">
+    <row r="238" spans="45:45">
+      <c r="AS238" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="243" spans="43:43">
-      <c r="AQ243" t="s">
+    <row r="239" spans="45:45">
+      <c r="AS239" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="244" spans="43:43">
-      <c r="AQ244" t="s">
+    <row r="240" spans="45:45">
+      <c r="AS240" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="245" spans="43:43">
-      <c r="AQ245" t="s">
+    <row r="241" spans="45:45">
+      <c r="AS241" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="246" spans="43:43">
-      <c r="AQ246" t="s">
+    <row r="242" spans="45:45">
+      <c r="AS242" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="247" spans="43:43">
-      <c r="AQ247" t="s">
+    <row r="243" spans="45:45">
+      <c r="AS243" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="248" spans="43:43">
-      <c r="AQ248" t="s">
+    <row r="244" spans="45:45">
+      <c r="AS244" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="249" spans="43:43">
-      <c r="AQ249" t="s">
+    <row r="245" spans="45:45">
+      <c r="AS245" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="250" spans="43:43">
-      <c r="AQ250" t="s">
+    <row r="246" spans="45:45">
+      <c r="AS246" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="251" spans="43:43">
-      <c r="AQ251" t="s">
+    <row r="247" spans="45:45">
+      <c r="AS247" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="252" spans="43:43">
-      <c r="AQ252" t="s">
+    <row r="248" spans="45:45">
+      <c r="AS248" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="253" spans="43:43">
-      <c r="AQ253" t="s">
+    <row r="249" spans="45:45">
+      <c r="AS249" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="254" spans="43:43">
-      <c r="AQ254" t="s">
+    <row r="250" spans="45:45">
+      <c r="AS250" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="255" spans="43:43">
-      <c r="AQ255" t="s">
+    <row r="251" spans="45:45">
+      <c r="AS251" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="256" spans="43:43">
-      <c r="AQ256" t="s">
+    <row r="252" spans="45:45">
+      <c r="AS252" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="257" spans="43:43">
-      <c r="AQ257" t="s">
+    <row r="253" spans="45:45">
+      <c r="AS253" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="258" spans="43:43">
-      <c r="AQ258" t="s">
+    <row r="254" spans="45:45">
+      <c r="AS254" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="259" spans="43:43">
-      <c r="AQ259" t="s">
+    <row r="255" spans="45:45">
+      <c r="AS255" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="260" spans="43:43">
-      <c r="AQ260" t="s">
+    <row r="256" spans="45:45">
+      <c r="AS256" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="261" spans="43:43">
-      <c r="AQ261" t="s">
+    <row r="257" spans="45:45">
+      <c r="AS257" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="262" spans="43:43">
-      <c r="AQ262" t="s">
+    <row r="258" spans="45:45">
+      <c r="AS258" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="263" spans="43:43">
-      <c r="AQ263" t="s">
+    <row r="259" spans="45:45">
+      <c r="AS259" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="264" spans="43:43">
-      <c r="AQ264" t="s">
+    <row r="260" spans="45:45">
+      <c r="AS260" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="265" spans="43:43">
-      <c r="AQ265" t="s">
+    <row r="261" spans="45:45">
+      <c r="AS261" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="266" spans="43:43">
-      <c r="AQ266" t="s">
+    <row r="262" spans="45:45">
+      <c r="AS262" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="267" spans="43:43">
-      <c r="AQ267" t="s">
+    <row r="263" spans="45:45">
+      <c r="AS263" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="268" spans="43:43">
-      <c r="AQ268" t="s">
+    <row r="264" spans="45:45">
+      <c r="AS264" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="43:43">
-      <c r="AQ269" t="s">
+    <row r="265" spans="45:45">
+      <c r="AS265" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="270" spans="43:43">
-      <c r="AQ270" t="s">
+    <row r="266" spans="45:45">
+      <c r="AS266" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="271" spans="43:43">
-      <c r="AQ271" t="s">
+    <row r="267" spans="45:45">
+      <c r="AS267" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="272" spans="43:43">
-      <c r="AQ272" t="s">
+    <row r="268" spans="45:45">
+      <c r="AS268" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="273" spans="43:43">
-      <c r="AQ273" t="s">
+    <row r="269" spans="45:45">
+      <c r="AS269" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="274" spans="43:43">
-      <c r="AQ274" t="s">
+    <row r="270" spans="45:45">
+      <c r="AS270" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="275" spans="43:43">
-      <c r="AQ275" t="s">
+    <row r="271" spans="45:45">
+      <c r="AS271" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="276" spans="43:43">
-      <c r="AQ276" t="s">
+    <row r="272" spans="45:45">
+      <c r="AS272" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="277" spans="43:43">
-      <c r="AQ277" t="s">
+    <row r="273" spans="45:45">
+      <c r="AS273" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="278" spans="43:43">
-      <c r="AQ278" t="s">
+    <row r="274" spans="45:45">
+      <c r="AS274" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="279" spans="43:43">
-      <c r="AQ279" t="s">
+    <row r="275" spans="45:45">
+      <c r="AS275" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="280" spans="43:43">
-      <c r="AQ280" t="s">
+    <row r="276" spans="45:45">
+      <c r="AS276" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="281" spans="43:43">
-      <c r="AQ281" t="s">
+    <row r="277" spans="45:45">
+      <c r="AS277" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="282" spans="43:43">
-      <c r="AQ282" t="s">
+    <row r="278" spans="45:45">
+      <c r="AS278" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="283" spans="43:43">
-      <c r="AQ283" t="s">
+    <row r="279" spans="45:45">
+      <c r="AS279" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="284" spans="43:43">
-      <c r="AQ284" t="s">
+    <row r="280" spans="45:45">
+      <c r="AS280" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="285" spans="43:43">
-      <c r="AQ285" t="s">
+    <row r="281" spans="45:45">
+      <c r="AS281" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="286" spans="43:43">
-      <c r="AQ286" t="s">
+    <row r="282" spans="45:45">
+      <c r="AS282" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="287" spans="43:43">
-      <c r="AQ287" t="s">
+    <row r="283" spans="45:45">
+      <c r="AS283" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="288" spans="43:43">
-      <c r="AQ288" t="s">
+    <row r="284" spans="45:45">
+      <c r="AS284" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="289" spans="43:43">
-      <c r="AQ289" t="s">
+    <row r="285" spans="45:45">
+      <c r="AS285" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="286" spans="45:45">
+      <c r="AS286" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="287" spans="45:45">
+      <c r="AS287" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="288" spans="45:45">
+      <c r="AS288" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="289" spans="45:45">
+      <c r="AS289" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="855">
   <si>
     <t>alias</t>
   </si>
@@ -1209,13 +1209,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t, g, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1443,9 +1443,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1464,6 +1461,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1665,6 +1665,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1674,9 +1677,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1716,7 +1716,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1785,6 +1785,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1860,6 +1863,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1881,6 +1887,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1926,6 +1935,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1938,6 +1950,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1947,9 +1962,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1974,6 +1986,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2034,12 +2049,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2130,7 +2145,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar, atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2154,7 +2169,7 @@
     <t>turbidity</t>
   </si>
   <si>
-    <t>(Optional) Turbidity measurement (Units: NTU)</t>
+    <t>(Optional) Turbidity measurement (Units: FTU, NTU)</t>
   </si>
   <si>
     <t>pH</t>
@@ -2172,13 +2187,13 @@
     <t>water content</t>
   </si>
   <si>
-    <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
+    <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: %, cm3/cm3, g/g)</t>
   </si>
   <si>
     <t>alkyl diethers</t>
   </si>
   <si>
-    <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
+    <t>(Optional) Concentration of alkyl diethers (Units: M/L, µg/L)</t>
   </si>
   <si>
     <t>aminopeptidase activity</t>
@@ -2202,19 +2217,19 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g, µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of bromide (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: parts/million, µmol/L, mg/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2232,7 +2247,7 @@
     <t>chlorophyll</t>
   </si>
   <si>
-    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
+    <t>(Optional) Concentration of chlorophyll (Units: mg/m3, µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
@@ -2268,7 +2283,7 @@
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: mg/L, µg/L)</t>
   </si>
   <si>
     <t>methane</t>
@@ -2292,7 +2307,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million, mol/L, mg/L)</t>
   </si>
   <si>
     <t>n-alkanes</t>
@@ -2352,7 +2367,7 @@
     <t>phaeopigments</t>
   </si>
   <si>
-    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: µg/L)</t>
+    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: mg/m3, µg/L)</t>
   </si>
   <si>
     <t>phosphate</t>
@@ -2364,13 +2379,13 @@
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/L, mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of potassium (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>redox potential</t>
@@ -2400,7 +2415,7 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
+    <t>(Optional) Sodium concentration (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>total organic carbon</t>
@@ -2412,19 +2427,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L, µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2508,7 +2523,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2580,7 +2595,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4263,247 +4278,247 @@
         <v>395</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:125" ht="150" customHeight="1">
@@ -4640,247 +4655,247 @@
         <v>396</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4928,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AZ289"/>
+  <dimension ref="G1:AZ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4939,7 +4954,7 @@
         <v>397</v>
       </c>
       <c r="AZ1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="7:52">
@@ -4962,7 +4977,7 @@
         <v>398</v>
       </c>
       <c r="AZ2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="7:52">
@@ -6509,6 +6524,31 @@
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="290" spans="45:45">
+      <c r="AS290" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="291" spans="45:45">
+      <c r="AS291" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="292" spans="45:45">
+      <c r="AS292" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="293" spans="45:45">
+      <c r="AS293" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="294" spans="45:45">
+      <c r="AS294" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000021/metadata_template_ERC000021.xlsx
+++ b/templates/ERC000021/metadata_template_ERC000021.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="855">
   <si>
     <t>alias</t>
   </si>
@@ -1209,13 +1209,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1443,9 +1443,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1464,6 +1461,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1665,6 +1665,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1674,9 +1677,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1716,7 +1716,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1785,6 +1785,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1860,6 +1863,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1881,6 +1887,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1926,6 +1935,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1938,6 +1950,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1947,9 +1962,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1974,6 +1986,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2034,12 +2049,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2130,7 +2145,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2202,7 +2217,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2214,7 +2229,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2292,7 +2307,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
   </si>
   <si>
     <t>n-alkanes</t>
@@ -2412,19 +2427,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
   </si>
   <si>
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2508,7 +2523,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2580,7 +2595,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4263,247 +4278,247 @@
         <v>395</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:125" ht="150" customHeight="1">
@@ -4640,247 +4655,247 @@
         <v>396</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4928,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AZ289"/>
+  <dimension ref="G1:AZ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4939,7 +4954,7 @@
         <v>397</v>
       </c>
       <c r="AZ1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="7:52">
@@ -4962,7 +4977,7 @@
         <v>398</v>
       </c>
       <c r="AZ2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="7:52">
@@ -6509,6 +6524,31 @@
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="290" spans="45:45">
+      <c r="AS290" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="291" spans="45:45">
+      <c r="AS291" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="292" spans="45:45">
+      <c r="AS292" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="293" spans="45:45">
+      <c r="AS293" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="294" spans="45:45">
+      <c r="AS294" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
